--- a/Algorithm_tester/data_autosave/real_sex_sin.xlsx
+++ b/Algorithm_tester/data_autosave/real_sex_sin.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H225"/>
+  <dimension ref="A1:I225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,11 @@
           <t>positive_predictivity</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>heart_rate</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -507,19 +512,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5571428571428572</v>
+        <v>0.967032967032967</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>80.78384399414062</v>
+        <v>60.62698364257812</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8260869565217391</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="H2" t="n">
-        <v>0.39</v>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>60.01562907007033</v>
       </c>
     </row>
     <row r="3">
@@ -529,19 +537,22 @@
         <v>0.05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.967032967032967</v>
+        <v>0.9766436952877631</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>87.76688575744629</v>
+        <v>60.72196960449219</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9387755102040817</v>
+        <v>0.9637537993920973</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9666666666666667</v>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>62.41625423287314</v>
       </c>
     </row>
     <row r="4">
@@ -551,19 +562,22 @@
         <v>0.25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9850746268656716</v>
+        <v>0.9879518072289156</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>91.88163280487061</v>
+        <v>61.1879825592041</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9743589743589743</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>72.0187548840844</v>
       </c>
     </row>
     <row r="5">
@@ -573,19 +587,22 @@
         <v>0.5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9882352941176471</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>98.73604774475098</v>
+        <v>64.99385833740234</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>82.02135972909612</v>
       </c>
     </row>
     <row r="6">
@@ -595,19 +612,22 @@
         <v>0.75</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9904761904761905</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>108.7123155593872</v>
+        <v>69.72789764404297</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>88.02292263610315</v>
       </c>
     </row>
     <row r="7">
@@ -617,19 +637,22 @@
         <v>0.95</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.9951219512195122</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>138.6959075927734</v>
+        <v>70.99514007568359</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>106.0276113571242</v>
       </c>
     </row>
     <row r="8">
@@ -645,13 +668,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>398.3199596405029</v>
+        <v>71.53701782226562</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>112.0291742641313</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +691,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6476190476190476</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>81.78186416625977</v>
+        <v>60.35780906677246</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4788732394366197</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="H9" t="n">
-        <v>0.95</v>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>70.01823391508205</v>
       </c>
     </row>
     <row r="10">
@@ -687,19 +716,22 @@
         <v>0.05</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7072619047619048</v>
+        <v>0.8518057285180574</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>87.77287006378174</v>
+        <v>60.40325164794922</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5471062618595826</v>
+        <v>0.7538461538461538</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9743589743589743</v>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>72.01875488408439</v>
       </c>
     </row>
     <row r="11">
@@ -709,19 +741,22 @@
         <v>0.25</v>
       </c>
       <c r="D11" t="n">
-        <v>0.975</v>
+        <v>0.9863013698630136</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>95.74210643768311</v>
+        <v>60.58502197265625</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9518002322880371</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>80.02083876009377</v>
       </c>
     </row>
     <row r="12">
@@ -731,19 +766,22 @@
         <v>0.5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9882352941176471</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>104.7194004058838</v>
+        <v>61.74206733703613</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9791666666666666</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>86.02240166710081</v>
       </c>
     </row>
     <row r="13">
@@ -753,19 +791,22 @@
         <v>0.75</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.9887640449438202</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>120.8226680755615</v>
+        <v>69.32473182678223</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>94.02448554311019</v>
       </c>
     </row>
     <row r="14">
@@ -775,19 +816,22 @@
         <v>0.95</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.9977528089887641</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>166.0329818725586</v>
+        <v>70.14164924621582</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>105.2274029695233</v>
       </c>
     </row>
     <row r="15">
@@ -803,13 +847,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>398.3814716339111</v>
+        <v>70.34587860107422</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>108.0281323261266</v>
       </c>
     </row>
     <row r="16">
@@ -827,19 +874,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9571428571428572</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>27.21977233886719</v>
+        <v>24.78671073913574</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7567567567567568</v>
+        <v>0.9178082191780822</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8163265306122449</v>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>60.01562907007033</v>
       </c>
     </row>
     <row r="17">
@@ -849,19 +899,22 @@
         <v>0.05</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9534883720930233</v>
+        <v>0.9721428571428571</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>35.85975170135498</v>
+        <v>24.86538887023926</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9111111111111111</v>
+        <v>0.9460706560922855</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9736842105263158</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>62.41625423287314</v>
       </c>
     </row>
     <row r="18">
@@ -871,19 +924,22 @@
         <v>0.25</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9777777777777777</v>
+        <v>0.9836065573770492</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>37.89734840393066</v>
+        <v>25.09498596191406</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>72.0187548840844</v>
       </c>
     </row>
     <row r="19">
@@ -893,19 +949,22 @@
         <v>0.5</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.9863013698630136</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>40.86422920227051</v>
+        <v>26.60799026489258</v>
       </c>
       <c r="G19" t="n">
-        <v>0.972972972972973</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>82.02135972909612</v>
       </c>
     </row>
     <row r="20">
@@ -915,19 +974,22 @@
         <v>0.75</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.9876543209876543</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>45.72999477386475</v>
+        <v>28.49912643432617</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>88.02292263610315</v>
       </c>
     </row>
     <row r="21">
@@ -937,19 +999,22 @@
         <v>0.95</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0.988343475321163</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>62.82548904418945</v>
+        <v>29.2576789855957</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0.977852998065764</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>106.0276113571242</v>
       </c>
     </row>
     <row r="22">
@@ -959,19 +1024,22 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>168.7448024749756</v>
+        <v>29.27613258361816</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>112.0291742641313</v>
       </c>
     </row>
     <row r="23">
@@ -985,19 +1053,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.8089887640449438</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>24.62100982666016</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>70.01823391508205</v>
       </c>
     </row>
     <row r="24">
@@ -1007,19 +1078,22 @@
         <v>0.05</v>
       </c>
       <c r="D24" t="n">
-        <v>0.688673835125448</v>
+        <v>0.844114088159032</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>34.90757942199707</v>
+        <v>24.68080520629883</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5251736593498194</v>
+        <v>0.7373356203544883</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>72.01875488408439</v>
       </c>
     </row>
     <row r="25">
@@ -1029,19 +1103,22 @@
         <v>0.25</v>
       </c>
       <c r="D25" t="n">
-        <v>0.963855421686747</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>38.86258602142334</v>
+        <v>24.91998672485352</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9302325581395349</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>80.02083876009377</v>
       </c>
     </row>
     <row r="26">
@@ -1051,19 +1128,22 @@
         <v>0.5</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.9873417721518988</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>42.88506507873535</v>
+        <v>24.95598793029785</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9714285714285714</v>
+        <v>0.975</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>86.02240166710081</v>
       </c>
     </row>
     <row r="27">
@@ -1073,19 +1153,22 @@
         <v>0.75</v>
       </c>
       <c r="D27" t="n">
-        <v>0.989247311827957</v>
+        <v>0.9879518072289156</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>51.33497714996338</v>
+        <v>28.42593193054199</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>94.02448554311019</v>
       </c>
     </row>
     <row r="28">
@@ -1095,19 +1178,22 @@
         <v>0.95</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0.9889882109081487</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>75.03666877746578</v>
+        <v>28.94511222839355</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0.9782168186423505</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>105.2274029695233</v>
       </c>
     </row>
     <row r="29">
@@ -1117,19 +1203,22 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>34310.37449836731</v>
+        <v>29.07490730285645</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>108.0281323261266</v>
       </c>
     </row>
     <row r="30">
@@ -1147,19 +1236,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4684684684684685</v>
+        <v>0.5344827586206896</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1.451015472412109</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3058823529411765</v>
+        <v>0.3647058823529412</v>
+      </c>
+      <c r="I30" t="n">
+        <v>60.01562907007033</v>
       </c>
     </row>
     <row r="31">
@@ -1169,19 +1261,22 @@
         <v>0.05</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5087719298245614</v>
+        <v>0.5477061469265367</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>3.585171699523926</v>
+        <v>1.451730728149414</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3411764705882353</v>
+        <v>0.3772076541459958</v>
+      </c>
+      <c r="I31" t="n">
+        <v>62.41625423287314</v>
       </c>
     </row>
     <row r="32">
@@ -1191,19 +1286,22 @@
         <v>0.25</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5614035087719298</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>4.08017635345459</v>
+        <v>1.466035842895508</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3902439024390244</v>
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="I32" t="n">
+        <v>72.0187548840844</v>
       </c>
     </row>
     <row r="33">
@@ -1213,19 +1311,22 @@
         <v>0.5</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.656</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>4.800319671630859</v>
+        <v>1.575946807861328</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4457831325301205</v>
+        <v>0.4880952380952381</v>
+      </c>
+      <c r="I33" t="n">
+        <v>82.02135972909612</v>
       </c>
     </row>
     <row r="34">
@@ -1235,19 +1336,22 @@
         <v>0.75</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>5.048036575317383</v>
+        <v>1.723051071166992</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5</v>
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="I34" t="n">
+        <v>88.02292263610315</v>
       </c>
     </row>
     <row r="35">
@@ -1257,19 +1361,22 @@
         <v>0.95</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7394385484423139</v>
+        <v>0.7766423357664233</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.035661697387694</v>
+        <v>1.807546615600586</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5865948275862065</v>
+        <v>0.6353515064562409</v>
+      </c>
+      <c r="I35" t="n">
+        <v>106.0276113571242</v>
       </c>
     </row>
     <row r="36">
@@ -1279,19 +1386,22 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8904109589041096</v>
+        <v>0.8029197080291971</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>40.44842720031738</v>
+        <v>1.859903335571289</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8024691358024691</v>
+        <v>0.6707317073170732</v>
+      </c>
+      <c r="I36" t="n">
+        <v>112.0291742641313</v>
       </c>
     </row>
     <row r="37">
@@ -1305,19 +1415,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5486725663716814</v>
+        <v>0.6194690265486725</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.451969146728516</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9848484848484849</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3780487804878049</v>
+        <v>0.4487179487179487</v>
+      </c>
+      <c r="I37" t="n">
+        <v>70.01823391508205</v>
       </c>
     </row>
     <row r="38">
@@ -1327,19 +1440,22 @@
         <v>0.05</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6</v>
+        <v>0.6277786110694465</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>3.562593460083008</v>
+        <v>1.452970504760742</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4577085361895489</v>
+      </c>
+      <c r="I38" t="n">
+        <v>72.01875488408439</v>
       </c>
     </row>
     <row r="39">
@@ -1349,19 +1465,22 @@
         <v>0.25</v>
       </c>
       <c r="D39" t="n">
-        <v>0.65</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>4.029512405395508</v>
+        <v>1.456975936889648</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4814814814814815</v>
+        <v>0.4936708860759494</v>
+      </c>
+      <c r="I39" t="n">
+        <v>80.02083876009377</v>
       </c>
     </row>
     <row r="40">
@@ -1371,19 +1490,22 @@
         <v>0.5</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6875</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>4.707813262939453</v>
+        <v>1.559019088745117</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="I40" t="n">
+        <v>86.02240166710081</v>
       </c>
     </row>
     <row r="41">
@@ -1393,19 +1515,22 @@
         <v>0.75</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7313432835820896</v>
+        <v>0.7131782945736435</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.033135414123535</v>
+        <v>1.684904098510742</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.5764705882352941</v>
+        <v>0.5542168674698795</v>
+      </c>
+      <c r="I41" t="n">
+        <v>94.02448554311019</v>
       </c>
     </row>
     <row r="42">
@@ -1415,19 +1540,22 @@
         <v>0.95</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8767123287671232</v>
+        <v>0.7826356589147287</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>6.616997718811034</v>
+        <v>1.689863204956055</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7804878048780488</v>
+        <v>0.6441767068273092</v>
+      </c>
+      <c r="I42" t="n">
+        <v>105.2274029695233</v>
       </c>
     </row>
     <row r="43">
@@ -1437,19 +1565,22 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9939393939393939</v>
+        <v>0.8</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>47.22189903259277</v>
+        <v>1.691102981567383</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I43" t="n">
+        <v>108.0281323261266</v>
       </c>
     </row>
     <row r="44">
@@ -1467,19 +1598,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8915662650602409</v>
+        <v>0.9662921348314607</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>44.87800598144531</v>
+        <v>33.15210342407227</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8043478260869565</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9210526315789473</v>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>60.01562907007033</v>
       </c>
     </row>
     <row r="45">
@@ -1489,19 +1623,22 @@
         <v>0.05</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9772860847018151</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>47.89721965789795</v>
+        <v>33.87680053710938</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9375</v>
+        <v>0.9562659846547314</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9781159420289856</v>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>62.41625423287314</v>
       </c>
     </row>
     <row r="46">
@@ -1511,19 +1648,22 @@
         <v>0.25</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.9906542056074766</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>50.86302757263184</v>
+        <v>34.83700752258301</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.9821428571428571</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>72.0187548840844</v>
       </c>
     </row>
     <row r="47">
@@ -1539,13 +1679,16 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>54.18515205383301</v>
+        <v>37.79506683349609</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>82.02135972909612</v>
       </c>
     </row>
     <row r="48">
@@ -1561,13 +1704,16 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>60.52529811859131</v>
+        <v>38.64479064941406</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>88.02292263610315</v>
       </c>
     </row>
     <row r="49">
@@ -1583,13 +1729,16 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>83.86068344116205</v>
+        <v>39.7132396697998</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>106.0276113571242</v>
       </c>
     </row>
     <row r="50">
@@ -1605,13 +1754,16 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>261.1820697784424</v>
+        <v>40.10176658630371</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>112.0291742641313</v>
       </c>
     </row>
     <row r="51">
@@ -1625,19 +1777,22 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.8192771084337349</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>36.42964363098145</v>
+        <v>35.04204750061035</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4769230769230769</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="H51" t="n">
-        <v>0.8928571428571429</v>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>70.01823391508205</v>
       </c>
     </row>
     <row r="52">
@@ -1647,19 +1802,22 @@
         <v>0.05</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7021276595744681</v>
+        <v>0.8528242841495853</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>49.85239505767822</v>
+        <v>35.05024909973145</v>
       </c>
       <c r="G52" t="n">
-        <v>0.5409836065573771</v>
+        <v>0.7499738356881214</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>72.01875488408439</v>
       </c>
     </row>
     <row r="53">
@@ -1669,19 +1827,22 @@
         <v>0.25</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9720924195223261</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>51.8648624420166</v>
+        <v>35.08305549621582</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9459459459459459</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>80.02083876009377</v>
       </c>
     </row>
     <row r="54">
@@ -1691,19 +1852,22 @@
         <v>0.5</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9885057471264368</v>
+        <v>0.9896907216494846</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>55.83715438842773</v>
+        <v>37.87589073181152</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9777777777777777</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>86.02240166710081</v>
       </c>
     </row>
     <row r="55">
@@ -1713,19 +1877,22 @@
         <v>0.75</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>63.79961967468262</v>
+        <v>38.96808624267578</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0.9803921568627451</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>94.02448554311019</v>
       </c>
     </row>
     <row r="56">
@@ -1735,19 +1902,22 @@
         <v>0.95</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0.997979797979798</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>93.44360828399654</v>
+        <v>39.49832916259766</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0.996078431372549</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>105.2274029695233</v>
       </c>
     </row>
     <row r="57">
@@ -1763,13 +1933,16 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>5535.496234893799</v>
+        <v>39.63088989257812</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>108.0281323261266</v>
       </c>
     </row>
     <row r="58">
@@ -1787,19 +1960,22 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8536585365853658</v>
+        <v>0.967032967032967</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>5.507946014404297</v>
       </c>
       <c r="G58" t="n">
-        <v>0.7446808510638298</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="H58" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.9743589743589743</v>
+      </c>
+      <c r="I58" t="n">
+        <v>60.01562907007033</v>
       </c>
     </row>
     <row r="59">
@@ -1809,19 +1985,22 @@
         <v>0.05</v>
       </c>
       <c r="D59" t="n">
-        <v>0.961038961038961</v>
+        <v>0.9762868710237131</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>6.984162330627441</v>
+        <v>5.538415908813477</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.9637537993920973</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9406417112299466</v>
+        <v>0.9897435897435898</v>
+      </c>
+      <c r="I59" t="n">
+        <v>62.41625423287314</v>
       </c>
     </row>
     <row r="60">
@@ -1831,19 +2010,22 @@
         <v>0.25</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9846153846153847</v>
+        <v>0.9876543209876543</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>7.978916168212891</v>
+        <v>5.915164947509766</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9777777777777777</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9743589743589743</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>72.0187548840844</v>
       </c>
     </row>
     <row r="61">
@@ -1853,19 +2035,22 @@
         <v>0.5</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9879518072289156</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>8.975982666015625</v>
+        <v>6.099939346313477</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>82.02135972909612</v>
       </c>
     </row>
     <row r="62">
@@ -1875,19 +2060,22 @@
         <v>0.75</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>10.0022554397583</v>
+        <v>6.675958633422852</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>88.02292263610315</v>
       </c>
     </row>
     <row r="63">
@@ -1897,19 +2085,22 @@
         <v>0.95</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0.9906821106821107</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>14.83132839202879</v>
+        <v>6.99329376220703</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>106.0276113571242</v>
       </c>
     </row>
     <row r="64">
@@ -1919,19 +2110,22 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0.990990990990991</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>44.6772575378418</v>
+        <v>7.207155227661133</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>112.0291742641313</v>
       </c>
     </row>
     <row r="65">
@@ -1945,19 +2139,22 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6530612244897959</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>5.504846572875977</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="H65" t="n">
-        <v>0.8205128205128205</v>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>70.01823391508205</v>
       </c>
     </row>
     <row r="66">
@@ -1967,19 +2164,22 @@
         <v>0.05</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7138613861386138</v>
+        <v>0.8550380517503805</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>6.982088088989258</v>
+        <v>5.53126335144043</v>
       </c>
       <c r="G66" t="n">
-        <v>0.555042735042735</v>
+        <v>0.7584905660377358</v>
       </c>
       <c r="H66" t="n">
-        <v>0.9722222222222222</v>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>72.01875488408439</v>
       </c>
     </row>
     <row r="67">
@@ -1989,19 +2189,22 @@
         <v>0.25</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.9863013698630136</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>7.980942726135254</v>
+        <v>5.636930465698242</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9529346622369879</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>80.02083876009377</v>
       </c>
     </row>
     <row r="68">
@@ -2011,19 +2214,22 @@
         <v>0.5</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9882352941176471</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>8.976221084594727</v>
+        <v>6.130218505859375</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>86.02240166710081</v>
       </c>
     </row>
     <row r="69">
@@ -2033,19 +2239,22 @@
         <v>0.75</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0.9894736842105263</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>9.979724884033203</v>
+        <v>6.16908073425293</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>94.02448554311019</v>
       </c>
     </row>
     <row r="70">
@@ -2055,19 +2264,22 @@
         <v>0.95</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0.9978947368421053</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>15.9555196762085</v>
+        <v>6.496953964233398</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>105.2274029695233</v>
       </c>
     </row>
     <row r="71">
@@ -2083,13 +2295,16 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>92.58913993835449</v>
+        <v>6.578922271728516</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>108.0281323261266</v>
       </c>
     </row>
     <row r="72">
@@ -2107,19 +2322,22 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4931506849315068</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1.592000007629395</v>
       </c>
       <c r="G72" t="n">
-        <v>0.3272727272727273</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="H72" t="n">
-        <v>0.9285714285714286</v>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>60.01562907007033</v>
       </c>
     </row>
     <row r="73">
@@ -2129,19 +2347,22 @@
         <v>0.05</v>
       </c>
       <c r="D73" t="n">
-        <v>0.8941176470588236</v>
+        <v>0.7230524642289349</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>8.418083190917969</v>
+        <v>1.608200004696846</v>
       </c>
       <c r="G73" t="n">
-        <v>0.8085106382978723</v>
+        <v>0.5933542319749217</v>
       </c>
       <c r="H73" t="n">
         <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>62.41625423287314</v>
       </c>
     </row>
     <row r="74">
@@ -2157,13 +2378,16 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>9.664177894592285</v>
+        <v>1.63400000333786</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>72.0187548840844</v>
       </c>
     </row>
     <row r="75">
@@ -2179,13 +2403,16 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>10.5433464050293</v>
+        <v>1.721000000834465</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>82.02135972909612</v>
       </c>
     </row>
     <row r="76">
@@ -2201,13 +2428,16 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>11.59203052520752</v>
+        <v>1.758999988436699</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>88.02292263610315</v>
       </c>
     </row>
     <row r="77">
@@ -2223,13 +2453,16 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>13.06476593017578</v>
+        <v>1.843800003500655</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>106.0276113571242</v>
       </c>
     </row>
     <row r="78">
@@ -2245,13 +2478,16 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>2440.622329711914</v>
+        <v>1.913999999989755</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>112.0291742641313</v>
       </c>
     </row>
     <row r="79">
@@ -2265,19 +2501,22 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4507042253521127</v>
+        <v>0.8125</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4658699035644531</v>
+        <v>1.600000008940697</v>
       </c>
       <c r="G79" t="n">
-        <v>0.2909090909090909</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="H79" t="n">
-        <v>0.9411764705882353</v>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>70.01823391508205</v>
       </c>
     </row>
     <row r="80">
@@ -2287,19 +2526,22 @@
         <v>0.05</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8478021978021978</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>8.481335639953613</v>
+        <v>1.60840000808239</v>
       </c>
       <c r="G80" t="n">
-        <v>0.5</v>
+        <v>0.7431131019036954</v>
       </c>
       <c r="H80" t="n">
         <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>72.01875488408439</v>
       </c>
     </row>
     <row r="81">
@@ -2309,19 +2551,22 @@
         <v>0.25</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9080338266384778</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>9.730100631713867</v>
+        <v>1.642000004649162</v>
       </c>
       <c r="G81" t="n">
-        <v>0.8315602836879432</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="H81" t="n">
         <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>80.02083876009377</v>
       </c>
     </row>
     <row r="82">
@@ -2337,13 +2582,16 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>10.59150695800781</v>
+        <v>1.679000005125999</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>86.02240166710081</v>
       </c>
     </row>
     <row r="83">
@@ -2359,13 +2607,16 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>11.6809606552124</v>
+        <v>1.74100000000908</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>94.02448554311019</v>
       </c>
     </row>
     <row r="84">
@@ -2381,13 +2632,16 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>13.93086910247803</v>
+        <v>1.742600000003586</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>105.2274029695233</v>
       </c>
     </row>
     <row r="85">
@@ -2403,13 +2657,16 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>829.073429107666</v>
+        <v>1.743000000002212</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>108.0281323261266</v>
       </c>
     </row>
     <row r="86">
@@ -2427,19 +2684,22 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8674698795180723</v>
+        <v>0.967032967032967</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>1.666069030761719</v>
       </c>
       <c r="G86" t="n">
-        <v>0.7659574468085106</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="H86" t="n">
-        <v>0.95</v>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>60.01562907007033</v>
       </c>
     </row>
     <row r="87">
@@ -2449,19 +2709,22 @@
         <v>0.05</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9655172413793104</v>
+        <v>0.9769771212394163</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>1.994061470031738</v>
+        <v>1.667356491088867</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9562862669245649</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>62.41625423287314</v>
       </c>
     </row>
     <row r="88">
@@ -2471,19 +2734,22 @@
         <v>0.25</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.9894736842105263</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>2.962350845336914</v>
+        <v>1.700162887573242</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.9814814814814815</v>
       </c>
       <c r="H88" t="n">
         <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>72.0187548840844</v>
       </c>
     </row>
     <row r="89">
@@ -2493,19 +2759,22 @@
         <v>0.5</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0.9904761904761905</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>2.992391586303711</v>
+        <v>1.848936080932617</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0.9841269841269841</v>
       </c>
       <c r="H89" t="n">
         <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>82.02135972909612</v>
       </c>
     </row>
     <row r="90">
@@ -2521,13 +2790,16 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>3.020882606506348</v>
+        <v>1.909255981445312</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>88.02292263610315</v>
       </c>
     </row>
     <row r="91">
@@ -2543,13 +2815,16 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>4.620385169982904</v>
+        <v>1.945829391479492</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>106.0276113571242</v>
       </c>
     </row>
     <row r="92">
@@ -2565,13 +2840,16 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>14.40143585205078</v>
+        <v>1.953125</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>112.0291742641313</v>
       </c>
     </row>
     <row r="93">
@@ -2585,19 +2863,22 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6476190476190476</v>
+        <v>0.8131868131868132</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>1.666069030761719</v>
       </c>
       <c r="G93" t="n">
-        <v>0.4788732394366197</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="H93" t="n">
-        <v>0.9696969696969697</v>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>70.01823391508205</v>
       </c>
     </row>
     <row r="94">
@@ -2607,19 +2888,22 @@
         <v>0.05</v>
       </c>
       <c r="D94" t="n">
-        <v>0.7017986400526431</v>
+        <v>0.8479520479520479</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>1.99437141418457</v>
+        <v>1.666593551635742</v>
       </c>
       <c r="G94" t="n">
-        <v>0.5405932864949259</v>
+        <v>0.7431481481481482</v>
       </c>
       <c r="H94" t="n">
         <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>72.01875488408439</v>
       </c>
     </row>
     <row r="95">
@@ -2629,19 +2913,22 @@
         <v>0.25</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>2.989530563354492</v>
+        <v>1.668691635131836</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9459459459459459</v>
+        <v>0.975</v>
       </c>
       <c r="H95" t="n">
         <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>80.02083876009377</v>
       </c>
     </row>
     <row r="96">
@@ -2651,19 +2938,22 @@
         <v>0.5</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9885057471264368</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>2.993106842041016</v>
+        <v>1.756906509399414</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9772727272727273</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>86.02240166710081</v>
       </c>
     </row>
     <row r="97">
@@ -2673,19 +2963,22 @@
         <v>0.75</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0.9896907216494846</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>3.962397575378418</v>
+        <v>1.884937286376953</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>94.02448554311019</v>
       </c>
     </row>
     <row r="98">
@@ -2695,19 +2988,22 @@
         <v>0.95</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0.9901711540386348</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>5.211496353149412</v>
+        <v>1.901721954345703</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>105.2274029695233</v>
       </c>
     </row>
     <row r="99">
@@ -2717,19 +3013,22 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0.9902912621359223</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>16.59059524536133</v>
+        <v>1.905918121337891</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>108.0281323261266</v>
       </c>
     </row>
     <row r="100">
@@ -2753,13 +3052,16 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>2.302169799804688</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>60.01562907007033</v>
       </c>
     </row>
     <row r="101">
@@ -2775,13 +3077,16 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>2.991676330566406</v>
+        <v>2.380704879760742</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>62.41625423287314</v>
       </c>
     </row>
     <row r="102">
@@ -2791,19 +3096,22 @@
         <v>0.25</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>3.988981246948242</v>
+        <v>2.624034881591797</v>
       </c>
       <c r="G102" t="n">
-        <v>0.35</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="H102" t="n">
         <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>72.0187548840844</v>
       </c>
     </row>
     <row r="103">
@@ -2813,19 +3121,22 @@
         <v>0.5</v>
       </c>
       <c r="D103" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>4.984855651855469</v>
+        <v>2.791881561279297</v>
       </c>
       <c r="G103" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H103" t="n">
         <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>82.02135972909612</v>
       </c>
     </row>
     <row r="104">
@@ -2835,19 +3146,22 @@
         <v>0.75</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>5.981326103210449</v>
+        <v>3.309965133666992</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="H104" t="n">
         <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>88.02292263610315</v>
       </c>
     </row>
     <row r="105">
@@ -2863,13 +3177,16 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>7.983827590942383</v>
+        <v>3.780364990234374</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>106.0276113571242</v>
       </c>
     </row>
     <row r="106">
@@ -2885,13 +3202,16 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>25.2678394317627</v>
+        <v>4.178047180175781</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>112.0291742641313</v>
       </c>
     </row>
     <row r="107">
@@ -2911,13 +3231,16 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>2.469062805175781</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>70.01823391508205</v>
       </c>
     </row>
     <row r="108">
@@ -2933,13 +3256,16 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>2.991199493408203</v>
+        <v>2.469396591186523</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>72.01875488408439</v>
       </c>
     </row>
     <row r="109">
@@ -2955,13 +3281,16 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>3.986358642578125</v>
+        <v>2.470731735229492</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>80.02083876009377</v>
       </c>
     </row>
     <row r="110">
@@ -2971,19 +3300,22 @@
         <v>0.5</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.7865168539325843</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>3.99470329284668</v>
+        <v>2.547025680541992</v>
       </c>
       <c r="G110" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>86.02240166710081</v>
       </c>
     </row>
     <row r="111">
@@ -2993,19 +3325,22 @@
         <v>0.75</v>
       </c>
       <c r="D111" t="n">
-        <v>0.96999699969997</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>4.991769790649414</v>
+        <v>2.620935440063477</v>
       </c>
       <c r="G111" t="n">
-        <v>0.9417420814479638</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>94.02448554311019</v>
       </c>
     </row>
     <row r="112">
@@ -3015,19 +3350,22 @@
         <v>0.95</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>0.9842105263157894</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>7.752108573913552</v>
+        <v>3.457117080688477</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0.9707317073170731</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>105.2274029695233</v>
       </c>
     </row>
     <row r="113">
@@ -3043,13 +3381,16 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>57.65295028686523</v>
+        <v>3.666162490844727</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>108.0281323261266</v>
       </c>
     </row>
     <row r="114">
@@ -3067,19 +3408,22 @@
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0.810126582278481</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>5.60450553894043</v>
+        <v>6.791830062866211</v>
       </c>
       <c r="G114" t="n">
-        <v>0.6808510638297872</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H114" t="n">
-        <v>0.9666666666666667</v>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>60.01562907007033</v>
       </c>
     </row>
     <row r="115">
@@ -3089,19 +3433,22 @@
         <v>0.05</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.9714975845410628</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>8.975911140441895</v>
+        <v>6.792545318603516</v>
       </c>
       <c r="G115" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9448484848484848</v>
       </c>
       <c r="H115" t="n">
         <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>62.41625423287314</v>
       </c>
     </row>
     <row r="116">
@@ -3111,19 +3458,22 @@
         <v>0.25</v>
       </c>
       <c r="D116" t="n">
-        <v>0.975609756097561</v>
+        <v>0.9830508474576272</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>9.973526000976562</v>
+        <v>6.806135177612305</v>
       </c>
       <c r="G116" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="H116" t="n">
         <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>72.0187548840844</v>
       </c>
     </row>
     <row r="117">
@@ -3133,19 +3483,22 @@
         <v>0.5</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>10.9705924987793</v>
+        <v>7.315874099731445</v>
       </c>
       <c r="G117" t="n">
-        <v>0.9714285714285714</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="H117" t="n">
         <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>82.02135972909612</v>
       </c>
     </row>
     <row r="118">
@@ -3155,19 +3508,22 @@
         <v>0.75</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9895822029300054</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>11.96956634521484</v>
+        <v>7.818937301635742</v>
       </c>
       <c r="G118" t="n">
-        <v>0.9795918367346939</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="H118" t="n">
         <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>88.02292263610315</v>
       </c>
     </row>
     <row r="119">
@@ -3177,19 +3533,22 @@
         <v>0.95</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>0.9876543209876543</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>16.96295738220214</v>
+        <v>7.852888107299805</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="H119" t="n">
         <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>106.0276113571242</v>
       </c>
     </row>
     <row r="120">
@@ -3199,19 +3558,22 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>0.9876543209876543</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>170.8016395568848</v>
+        <v>7.863044738769531</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="H120" t="n">
         <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>112.0291742641313</v>
       </c>
     </row>
     <row r="121">
@@ -3225,19 +3587,22 @@
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6391752577319587</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>6.781816482543945</v>
       </c>
       <c r="G121" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="H121" t="n">
         <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>70.01823391508205</v>
       </c>
     </row>
     <row r="122">
@@ -3247,19 +3612,22 @@
         <v>0.05</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6900879765395894</v>
+        <v>0.8404013377926421</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>8.976149559020996</v>
+        <v>6.786251068115234</v>
       </c>
       <c r="G122" t="n">
-        <v>0.5268214936247724</v>
+        <v>0.7321212121212122</v>
       </c>
       <c r="H122" t="n">
         <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>72.01875488408439</v>
       </c>
     </row>
     <row r="123">
@@ -3269,19 +3637,22 @@
         <v>0.25</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>9.975194931030273</v>
+        <v>6.803989410400391</v>
       </c>
       <c r="G123" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="H123" t="n">
         <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>80.02083876009377</v>
       </c>
     </row>
     <row r="124">
@@ -3291,19 +3662,22 @@
         <v>0.5</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9795918367346939</v>
+        <v>0.9866666666666667</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>10.9715461730957</v>
+        <v>6.988048553466797</v>
       </c>
       <c r="G124" t="n">
-        <v>0.96</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="H124" t="n">
         <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>86.02240166710081</v>
       </c>
     </row>
     <row r="125">
@@ -3313,19 +3687,22 @@
         <v>0.75</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9885057471264368</v>
+        <v>0.9873417721518988</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>12.59183883666992</v>
+        <v>7.812738418579102</v>
       </c>
       <c r="G125" t="n">
-        <v>0.9772727272727273</v>
+        <v>0.975</v>
       </c>
       <c r="H125" t="n">
         <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>94.02448554311019</v>
       </c>
     </row>
     <row r="126">
@@ -3335,19 +3712,22 @@
         <v>0.95</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>0.9882729521315292</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>18.94502639770508</v>
+        <v>7.825708389282227</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>0.9768181818181818</v>
       </c>
       <c r="H126" t="n">
         <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>105.2274029695233</v>
       </c>
     </row>
     <row r="127">
@@ -3357,19 +3737,22 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>71.83456420898438</v>
+        <v>7.828950881958008</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="H127" t="n">
         <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>108.0281323261266</v>
       </c>
     </row>
     <row r="128">
@@ -3387,19 +3770,22 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.8809523809523809</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>2.16221809387207</v>
       </c>
       <c r="G128" t="n">
-        <v>0.7872340425531915</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="H128" t="n">
-        <v>0.9629629629629629</v>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>60.01562907007033</v>
       </c>
     </row>
     <row r="129">
@@ -3409,19 +3795,22 @@
         <v>0.05</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9655172413793104</v>
+        <v>0.975954415954416</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>2.991437911987305</v>
+        <v>2.246618270874023</v>
       </c>
       <c r="G129" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9537815126050421</v>
       </c>
       <c r="H129" t="n">
         <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>62.41625423287314</v>
       </c>
     </row>
     <row r="130">
@@ -3431,19 +3820,22 @@
         <v>0.25</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.9894736842105263</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>3.984689712524414</v>
+        <v>2.37584114074707</v>
       </c>
       <c r="G130" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.98</v>
       </c>
       <c r="H130" t="n">
         <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>72.0187548840844</v>
       </c>
     </row>
     <row r="131">
@@ -3453,19 +3845,22 @@
         <v>0.5</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>0.9908256880733946</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>3.989934921264648</v>
+        <v>2.521991729736328</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>82.02135972909612</v>
       </c>
     </row>
     <row r="132">
@@ -3481,13 +3876,16 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>4.986286163330078</v>
+        <v>2.793073654174805</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>88.02292263610315</v>
       </c>
     </row>
     <row r="133">
@@ -3503,13 +3901,16 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>6.978416442871094</v>
+        <v>2.939367294311523</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
       </c>
       <c r="H133" t="n">
         <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>106.0276113571242</v>
       </c>
     </row>
     <row r="134">
@@ -3525,13 +3926,16 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>33.94031524658203</v>
+        <v>3.045082092285156</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>112.0291742641313</v>
       </c>
     </row>
     <row r="135">
@@ -3545,19 +3949,22 @@
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>2.290964126586914</v>
       </c>
       <c r="G135" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="H135" t="n">
-        <v>0.9696969696969697</v>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>70.01823391508205</v>
       </c>
     </row>
     <row r="136">
@@ -3567,19 +3974,22 @@
         <v>0.05</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7007216494845361</v>
+        <v>0.8503214984623987</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>2.991914749145508</v>
+        <v>2.315807342529297</v>
       </c>
       <c r="G136" t="n">
-        <v>0.5393162393162393</v>
+        <v>0.7464609800362977</v>
       </c>
       <c r="H136" t="n">
         <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>72.01875488408439</v>
       </c>
     </row>
     <row r="137">
@@ -3589,19 +3999,22 @@
         <v>0.25</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.9863013698630136</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>3.988027572631836</v>
+        <v>2.415180206298828</v>
       </c>
       <c r="G137" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="H137" t="n">
         <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>80.02083876009377</v>
       </c>
     </row>
     <row r="138">
@@ -3611,19 +4024,22 @@
         <v>0.5</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9882352941176471</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>3.993749618530273</v>
+        <v>2.532958984375</v>
       </c>
       <c r="G138" t="n">
-        <v>0.9772727272727273</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="H138" t="n">
         <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>86.02240166710081</v>
       </c>
     </row>
     <row r="139">
@@ -3633,19 +4049,22 @@
         <v>0.75</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>4.987001419067383</v>
+        <v>2.588748931884766</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="H139" t="n">
         <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>94.02448554311019</v>
       </c>
     </row>
     <row r="140">
@@ -3655,19 +4074,22 @@
         <v>0.95</v>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>0.9895547751217855</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>6.981372833251953</v>
+        <v>2.670383453369141</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0.979418150238819</v>
       </c>
       <c r="H140" t="n">
         <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>105.2274029695233</v>
       </c>
     </row>
     <row r="141">
@@ -3677,19 +4099,22 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>0.9896907216494846</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>65.73700904846191</v>
+        <v>2.690792083740234</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="H141" t="n">
         <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>108.0281323261266</v>
       </c>
     </row>
     <row r="142">
@@ -3707,19 +4132,22 @@
         <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>0.8536585365853658</v>
+        <v>0.967032967032967</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>1.234292984008789</v>
       </c>
       <c r="G142" t="n">
-        <v>0.7446808510638298</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="H142" t="n">
-        <v>0.9310344827586207</v>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>60.01562907007033</v>
       </c>
     </row>
     <row r="143">
@@ -3729,19 +4157,22 @@
         <v>0.05</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9766436952877631</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>1.989841461181641</v>
+        <v>1.247882843017578</v>
       </c>
       <c r="G143" t="n">
-        <v>0.9375</v>
+        <v>0.9639417693169092</v>
       </c>
       <c r="H143" t="n">
-        <v>0.9666666666666667</v>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>62.41625423287314</v>
       </c>
     </row>
     <row r="144">
@@ -3751,19 +4182,22 @@
         <v>0.25</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9850746268656716</v>
+        <v>0.9887640449438202</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>1.995325088500977</v>
+        <v>1.289129257202148</v>
       </c>
       <c r="G144" t="n">
-        <v>0.9736842105263158</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
         <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>72.0187548840844</v>
       </c>
     </row>
     <row r="145">
@@ -3773,19 +4207,22 @@
         <v>0.5</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9887640449438202</v>
+        <v>0.9900990099009901</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>2.964973449707031</v>
+        <v>1.350164413452148</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>82.02135972909612</v>
       </c>
     </row>
     <row r="146">
@@ -3795,19 +4232,22 @@
         <v>0.75</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0.990990990990991</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>2.993106842041016</v>
+        <v>1.453161239624023</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
       </c>
       <c r="H146" t="n">
         <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>88.02292263610315</v>
       </c>
     </row>
     <row r="147">
@@ -3823,13 +4263,16 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>3.990721702575684</v>
+        <v>1.543617248535156</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
       </c>
       <c r="H147" t="n">
         <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>106.0276113571242</v>
       </c>
     </row>
     <row r="148">
@@ -3845,13 +4288,16 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>20.94578742980957</v>
+        <v>1.585245132446289</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
       </c>
       <c r="H148" t="n">
         <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>112.0291742641313</v>
       </c>
     </row>
     <row r="149">
@@ -3865,19 +4311,22 @@
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>0.6476190476190476</v>
+        <v>0.82</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>1.235246658325195</v>
       </c>
       <c r="G149" t="n">
-        <v>0.4788732394366197</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="H149" t="n">
-        <v>0.9642857142857143</v>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>70.01823391508205</v>
       </c>
     </row>
     <row r="150">
@@ -3887,19 +4336,22 @@
         <v>0.05</v>
       </c>
       <c r="D150" t="n">
-        <v>0.7075980392156863</v>
+        <v>0.8534025974025974</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>1.990485191345215</v>
+        <v>1.243209838867188</v>
       </c>
       <c r="G150" t="n">
-        <v>0.5475073313782991</v>
+        <v>0.7559322033898306</v>
       </c>
       <c r="H150" t="n">
-        <v>0.9767441860465116</v>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>72.01875488408439</v>
       </c>
     </row>
     <row r="151">
@@ -3909,19 +4361,22 @@
         <v>0.25</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>1.995325088500977</v>
+        <v>1.275062561035156</v>
       </c>
       <c r="G151" t="n">
-        <v>0.9487179487179487</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
         <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>80.02083876009377</v>
       </c>
     </row>
     <row r="152">
@@ -3937,13 +4392,16 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>2.977848052978516</v>
+        <v>1.291990280151367</v>
       </c>
       <c r="G152" t="n">
-        <v>0.9791666666666666</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>86.02240166710081</v>
       </c>
     </row>
     <row r="153">
@@ -3953,19 +4411,22 @@
         <v>0.75</v>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>2.993345260620117</v>
+        <v>1.406192779541016</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
       </c>
       <c r="H153" t="n">
         <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>94.02448554311019</v>
       </c>
     </row>
     <row r="154">
@@ -3975,19 +4436,22 @@
         <v>0.95</v>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>0.9978021978021978</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>4.024243354797363</v>
+        <v>1.408290863037109</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
       </c>
       <c r="H154" t="n">
         <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>105.2274029695233</v>
       </c>
     </row>
     <row r="155">
@@ -4003,13 +4467,16 @@
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>133.7661743164062</v>
+        <v>1.408815383911133</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
       </c>
       <c r="H155" t="n">
         <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>108.0281323261266</v>
       </c>
     </row>
     <row r="156">
@@ -4027,19 +4494,22 @@
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>0.810126582278481</v>
+        <v>0.9682539682539683</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>1.157045364379883</v>
+        <v>1.546000003814697</v>
       </c>
       <c r="G156" t="n">
-        <v>0.6808510638297872</v>
+        <v>0.9384615384615385</v>
       </c>
       <c r="H156" t="n">
-        <v>0.9393939393939394</v>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>60.01562907007033</v>
       </c>
     </row>
     <row r="157">
@@ -4049,19 +4519,22 @@
         <v>0.05</v>
       </c>
       <c r="D157" t="n">
-        <v>0.967741935483871</v>
+        <v>0.9824235385210994</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>9.909319877624512</v>
+        <v>1.558000001311302</v>
       </c>
       <c r="G157" t="n">
-        <v>0.9375</v>
+        <v>0.9658608058608058</v>
       </c>
       <c r="H157" t="n">
         <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>62.41625423287314</v>
       </c>
     </row>
     <row r="158">
@@ -4071,19 +4544,22 @@
         <v>0.25</v>
       </c>
       <c r="D158" t="n">
-        <v>0.987012987012987</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>10.51676273345947</v>
+        <v>1.703999996185303</v>
       </c>
       <c r="G158" t="n">
-        <v>0.9772727272727273</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
         <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>72.0187548840844</v>
       </c>
     </row>
     <row r="159">
@@ -4099,13 +4575,16 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>10.97822189331055</v>
+        <v>1.857999995350838</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
       </c>
       <c r="H159" t="n">
         <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>82.02135972909612</v>
       </c>
     </row>
     <row r="160">
@@ -4121,13 +4600,16 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>12.00127601623535</v>
+        <v>1.90200001001358</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
       </c>
       <c r="H160" t="n">
         <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>88.02292263610315</v>
       </c>
     </row>
     <row r="161">
@@ -4143,13 +4625,16 @@
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>15.18540382385252</v>
+        <v>1.970400002598762</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
       </c>
       <c r="H161" t="n">
         <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>106.0276113571242</v>
       </c>
     </row>
     <row r="162">
@@ -4165,13 +4650,16 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>3243.98398399353</v>
+        <v>2.018999993801117</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
       </c>
       <c r="H162" t="n">
         <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>112.0291742641313</v>
       </c>
     </row>
     <row r="163">
@@ -4185,19 +4673,22 @@
         <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>0.6530612244897959</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="G163" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="H163" t="n">
-        <v>0.967741935483871</v>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>70.01823391508205</v>
       </c>
     </row>
     <row r="164">
@@ -4207,19 +4698,22 @@
         <v>0.05</v>
       </c>
       <c r="D164" t="n">
-        <v>0.7021276595744681</v>
+        <v>0.8537634408602151</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>8.977341651916504</v>
+        <v>1.632400000095367</v>
       </c>
       <c r="G164" t="n">
-        <v>0.5409836065573771</v>
+        <v>0.7527272727272727</v>
       </c>
       <c r="H164" t="n">
         <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>72.01875488408439</v>
       </c>
     </row>
     <row r="165">
@@ -4229,19 +4723,22 @@
         <v>0.25</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9761904761904762</v>
+        <v>1</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>9.976387023925781</v>
+        <v>1.662000000476837</v>
       </c>
       <c r="G165" t="n">
-        <v>0.9534883720930233</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
         <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>80.02083876009377</v>
       </c>
     </row>
     <row r="166">
@@ -4257,13 +4754,16 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>10.97249984741211</v>
+        <v>1.819999999999709</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
       </c>
       <c r="H166" t="n">
         <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>86.02240166710081</v>
       </c>
     </row>
     <row r="167">
@@ -4279,13 +4779,16 @@
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>11.98112964630127</v>
+        <v>1.837999999523163</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
       </c>
       <c r="H167" t="n">
         <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>94.02448554311019</v>
       </c>
     </row>
     <row r="168">
@@ -4301,13 +4804,16 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>15.50190448760985</v>
+        <v>1.91879999989178</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
       </c>
       <c r="H168" t="n">
         <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>105.2274029695233</v>
       </c>
     </row>
     <row r="169">
@@ -4323,13 +4829,16 @@
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>936.6421699523926</v>
+        <v>1.938999999983935</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
       </c>
       <c r="H169" t="n">
         <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>108.0281323261266</v>
       </c>
     </row>
     <row r="170">
@@ -4347,19 +4856,22 @@
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>0.970873786407767</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>0.7360000014305115</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>60.01562907007033</v>
       </c>
     </row>
     <row r="171">
@@ -4369,19 +4881,22 @@
         <v>0.05</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9711764705882353</v>
+        <v>0.9883495145631068</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>14.70129489898682</v>
+        <v>0.7467999964952469</v>
       </c>
       <c r="G171" t="n">
-        <v>0.9571692876965773</v>
+        <v>0.9773584905660377</v>
       </c>
       <c r="H171" t="n">
-        <v>0.9772727272727273</v>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>62.41625423287314</v>
       </c>
     </row>
     <row r="172">
@@ -4397,13 +4912,16 @@
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>15.95866680145264</v>
+        <v>0.7659999877214432</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
       </c>
       <c r="H172" t="n">
         <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>72.0187548840844</v>
       </c>
     </row>
     <row r="173">
@@ -4419,13 +4937,16 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>16.95990562438965</v>
+        <v>0.8200000077486038</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
       </c>
       <c r="H173" t="n">
         <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>82.02135972909612</v>
       </c>
     </row>
     <row r="174">
@@ -4441,13 +4962,16 @@
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>18.38862895965576</v>
+        <v>0.8610000000044238</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
       </c>
       <c r="H174" t="n">
         <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>88.02292263610315</v>
       </c>
     </row>
     <row r="175">
@@ -4463,13 +4987,16 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>20.94449996948242</v>
+        <v>0.8980000036302953</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
       </c>
       <c r="H175" t="n">
         <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>106.0276113571242</v>
       </c>
     </row>
     <row r="176">
@@ -4482,16 +5009,19 @@
         <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>1754.371404647827</v>
+        <v>0.9279999999562278</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
       </c>
       <c r="H176" t="n">
         <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>112.0291742641313</v>
       </c>
     </row>
     <row r="177">
@@ -4505,19 +5035,22 @@
         <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>0.5</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>3.15403938293457</v>
+        <v>0.7430000007152557</v>
       </c>
       <c r="G177" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="H177" t="n">
-        <v>0.8596491228070176</v>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>70.01823391508205</v>
       </c>
     </row>
     <row r="178">
@@ -4527,19 +5060,22 @@
         <v>0.05</v>
       </c>
       <c r="D178" t="n">
-        <v>0.7010309278350515</v>
+        <v>0.8577777777777778</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>14.73920345306396</v>
+        <v>0.75</v>
       </c>
       <c r="G178" t="n">
-        <v>0.5396825396825397</v>
+        <v>0.7584905660377358</v>
       </c>
       <c r="H178" t="n">
         <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>72.01875488408439</v>
       </c>
     </row>
     <row r="179">
@@ -4549,19 +5085,22 @@
         <v>0.25</v>
       </c>
       <c r="D179" t="n">
-        <v>0.9780193236714976</v>
+        <v>1</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>15.97034931182861</v>
+        <v>0.7779999971389771</v>
       </c>
       <c r="G179" t="n">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
         <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>80.02083876009377</v>
       </c>
     </row>
     <row r="180">
@@ -4577,13 +5116,16 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>17.05098152160645</v>
+        <v>0.7859999984502792</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
       </c>
       <c r="H180" t="n">
         <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>86.02240166710081</v>
       </c>
     </row>
     <row r="181">
@@ -4599,13 +5141,16 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>18.51403713226318</v>
+        <v>0.8159999999916181</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
       </c>
       <c r="H181" t="n">
         <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>94.02448554311019</v>
       </c>
     </row>
     <row r="182">
@@ -4621,13 +5166,16 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>21.33233547210693</v>
+        <v>0.8311999999918044</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
       </c>
       <c r="H182" t="n">
         <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>105.2274029695233</v>
       </c>
     </row>
     <row r="183">
@@ -4643,13 +5191,16 @@
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>651.9458293914795</v>
+        <v>0.8349999999918509</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
       </c>
       <c r="H183" t="n">
         <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>108.0281323261266</v>
       </c>
     </row>
     <row r="184">
@@ -4667,19 +5218,22 @@
         <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>0.8915662650602409</v>
+        <v>0.967032967032967</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>2.932071685791016</v>
       </c>
       <c r="G184" t="n">
-        <v>0.8043478260869565</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="H184" t="n">
-        <v>0.90625</v>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>60.01562907007033</v>
       </c>
     </row>
     <row r="185">
@@ -4689,19 +5243,22 @@
         <v>0.05</v>
       </c>
       <c r="D185" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9769771212394163</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>2.987790107727051</v>
+        <v>2.93736457824707</v>
       </c>
       <c r="G185" t="n">
-        <v>0.9375</v>
+        <v>0.9639417693169092</v>
       </c>
       <c r="H185" t="n">
-        <v>0.967741935483871</v>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>62.41625423287314</v>
       </c>
     </row>
     <row r="186">
@@ -4711,19 +5268,22 @@
         <v>0.25</v>
       </c>
       <c r="D186" t="n">
-        <v>0.9855072463768116</v>
+        <v>1</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>2.992868423461914</v>
+        <v>2.949953079223633</v>
       </c>
       <c r="G186" t="n">
-        <v>0.9743589743589743</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
         <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>72.0187548840844</v>
       </c>
     </row>
     <row r="187">
@@ -4739,13 +5299,16 @@
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>3.987789154052734</v>
+        <v>3.184795379638672</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
       </c>
       <c r="H187" t="n">
         <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>82.02135972909612</v>
       </c>
     </row>
     <row r="188">
@@ -4761,13 +5324,16 @@
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>4.008293151855469</v>
+        <v>3.399133682250977</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
       </c>
       <c r="H188" t="n">
         <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>88.02292263610315</v>
       </c>
     </row>
     <row r="189">
@@ -4783,13 +5349,16 @@
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>6.620073318481439</v>
+        <v>3.413677215576172</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
       </c>
       <c r="H189" t="n">
         <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>106.0276113571242</v>
       </c>
     </row>
     <row r="190">
@@ -4805,13 +5374,16 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>26.5190601348877</v>
+        <v>3.415822982788086</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
       </c>
       <c r="H190" t="n">
         <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>112.0291742641313</v>
       </c>
     </row>
     <row r="191">
@@ -4825,19 +5397,22 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>2.936124801635742</v>
       </c>
       <c r="G191" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="H191" t="n">
-        <v>0.967741935483871</v>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>70.01823391508205</v>
       </c>
     </row>
     <row r="192">
@@ -4847,19 +5422,22 @@
         <v>0.05</v>
       </c>
       <c r="D192" t="n">
-        <v>0.7017986400526431</v>
+        <v>0.8520138089758343</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>2.990007400512695</v>
+        <v>2.93889045715332</v>
       </c>
       <c r="G192" t="n">
-        <v>0.5405932864949259</v>
+        <v>0.7538461538461538</v>
       </c>
       <c r="H192" t="n">
-        <v>0.9787234042553191</v>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>72.01875488408439</v>
       </c>
     </row>
     <row r="193">
@@ -4869,19 +5447,22 @@
         <v>0.25</v>
       </c>
       <c r="D193" t="n">
-        <v>0.9732121502033007</v>
+        <v>0.9873417721518988</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>3.507494926452637</v>
+        <v>2.949953079223633</v>
       </c>
       <c r="G193" t="n">
-        <v>0.9478221415607986</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
         <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>80.02083876009377</v>
       </c>
     </row>
     <row r="194">
@@ -4891,19 +5472,22 @@
         <v>0.5</v>
       </c>
       <c r="D194" t="n">
-        <v>0.9890109890109891</v>
+        <v>1</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>3.989219665527344</v>
+        <v>3.006935119628906</v>
       </c>
       <c r="G194" t="n">
-        <v>0.9807692307692307</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
         <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>86.02240166710081</v>
       </c>
     </row>
     <row r="195">
@@ -4919,13 +5503,16 @@
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>4.962921142578125</v>
+        <v>3.380060195922852</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
       </c>
       <c r="H195" t="n">
         <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>94.02448554311019</v>
       </c>
     </row>
     <row r="196">
@@ -4941,13 +5528,16 @@
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>8.186531066894528</v>
+        <v>3.385400772094727</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>105.2274029695233</v>
       </c>
     </row>
     <row r="197">
@@ -4963,13 +5553,16 @@
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>23.65469932556152</v>
+        <v>3.386735916137695</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>108.0281323261266</v>
       </c>
     </row>
     <row r="198">
@@ -4987,19 +5580,22 @@
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>0.8</v>
+        <v>0.6771653543307087</v>
       </c>
       <c r="E198" t="n">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>10.59532165527344</v>
+        <v>8.366999998688698</v>
       </c>
       <c r="G198" t="n">
-        <v>0.7659574468085106</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="H198" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="I198" t="n">
+        <v>60.01562907007033</v>
       </c>
     </row>
     <row r="199">
@@ -5009,19 +5605,22 @@
         <v>0.05</v>
       </c>
       <c r="D199" t="n">
-        <v>0.9686513157894737</v>
+        <v>0.8530443595540657</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>21.91448211669922</v>
+        <v>8.560799998044967</v>
       </c>
       <c r="G199" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.9769230769230769</v>
       </c>
       <c r="H199" t="n">
-        <v>0.9777777777777777</v>
+        <v>0.8047619047619048</v>
+      </c>
+      <c r="I199" t="n">
+        <v>62.41625423287314</v>
       </c>
     </row>
     <row r="200">
@@ -5037,13 +5636,16 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>23.93198013305664</v>
+        <v>8.890000000596046</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
       </c>
       <c r="H200" t="n">
         <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>72.0187548840844</v>
       </c>
     </row>
     <row r="201">
@@ -5059,13 +5661,16 @@
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>25.91896057128906</v>
+        <v>9.416999995708466</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>82.02135972909612</v>
       </c>
     </row>
     <row r="202">
@@ -5081,13 +5686,16 @@
         <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>28.8395881652832</v>
+        <v>10.20299999415874</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
       </c>
       <c r="H202" t="n">
         <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>88.02292263610315</v>
       </c>
     </row>
     <row r="203">
@@ -5103,13 +5711,16 @@
         <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>35.9044075012207</v>
+        <v>11.62679999999236</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
       </c>
       <c r="H203" t="n">
         <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>106.0276113571242</v>
       </c>
     </row>
     <row r="204">
@@ -5125,13 +5736,16 @@
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>89.47968482971191</v>
+        <v>12.49199999999837</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
       </c>
       <c r="H204" t="n">
         <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>112.0291742641313</v>
       </c>
     </row>
     <row r="205">
@@ -5145,19 +5759,22 @@
         <v>0</v>
       </c>
       <c r="D205" t="n">
-        <v>0.6548672566371682</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>15.79856872558594</v>
+        <v>8.627000004053116</v>
       </c>
       <c r="G205" t="n">
-        <v>0.4868421052631579</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="H205" t="n">
-        <v>0.5116279069767442</v>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>70.01823391508205</v>
       </c>
     </row>
     <row r="206">
@@ -5167,19 +5784,22 @@
         <v>0.05</v>
       </c>
       <c r="D206" t="n">
-        <v>0.6994339622641509</v>
+        <v>0.8577777777777778</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>21.97220325469971</v>
+        <v>8.704000005126</v>
       </c>
       <c r="G206" t="n">
-        <v>0.5494421906693712</v>
+        <v>0.7584905660377358</v>
       </c>
       <c r="H206" t="n">
-        <v>0.9777777777777777</v>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>72.01875488408439</v>
       </c>
     </row>
     <row r="207">
@@ -5189,19 +5809,22 @@
         <v>0.25</v>
       </c>
       <c r="D207" t="n">
-        <v>0.9761904761904762</v>
+        <v>1</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>23.93436431884766</v>
+        <v>9.012000009417534</v>
       </c>
       <c r="G207" t="n">
-        <v>0.9555555555555556</v>
+        <v>1</v>
       </c>
       <c r="H207" t="n">
         <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>80.02083876009377</v>
       </c>
     </row>
     <row r="208">
@@ -5217,13 +5840,16 @@
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>25.92706680297852</v>
+        <v>9.327000007033348</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
       </c>
       <c r="H208" t="n">
         <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>86.02240166710081</v>
       </c>
     </row>
     <row r="209">
@@ -5239,13 +5865,16 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>28.922438621521</v>
+        <v>9.524999999994179</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
       </c>
       <c r="H209" t="n">
         <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>94.02448554311019</v>
       </c>
     </row>
     <row r="210">
@@ -5261,13 +5890,16 @@
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>37.23800182342525</v>
+        <v>9.749800007342127</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
       </c>
       <c r="H210" t="n">
         <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>105.2274029695233</v>
       </c>
     </row>
     <row r="211">
@@ -5283,13 +5915,16 @@
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>145.6122398376465</v>
+        <v>9.806000009179115</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
       </c>
       <c r="H211" t="n">
         <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>108.0281323261266</v>
       </c>
     </row>
     <row r="212">
@@ -5307,19 +5942,22 @@
         <v>0</v>
       </c>
       <c r="D212" t="n">
-        <v>0.65</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="E212" t="n">
         <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>78.85313034057617</v>
+        <v>63.1868839263916</v>
       </c>
       <c r="G212" t="n">
-        <v>0.8545454545454545</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="H212" t="n">
-        <v>0.4814814814814815</v>
+        <v>0.5272727272727272</v>
+      </c>
+      <c r="I212" t="n">
+        <v>60.01562907007033</v>
       </c>
     </row>
     <row r="213">
@@ -5329,19 +5967,22 @@
         <v>0.05</v>
       </c>
       <c r="D213" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7206349206349206</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
       </c>
       <c r="F213" t="n">
-        <v>85.81018447875977</v>
+        <v>63.19289207458496</v>
       </c>
       <c r="G213" t="n">
-        <v>0.9743589743589743</v>
+        <v>0.9822222222222222</v>
       </c>
       <c r="H213" t="n">
-        <v>0.5</v>
+        <v>0.5638502673796791</v>
+      </c>
+      <c r="I213" t="n">
+        <v>62.41625423287314</v>
       </c>
     </row>
     <row r="214">
@@ -5351,19 +5992,22 @@
         <v>0.25</v>
       </c>
       <c r="D214" t="n">
-        <v>0.7804878048780488</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="E214" t="n">
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>90.76261520385742</v>
+        <v>63.3082389831543</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
       </c>
       <c r="H214" t="n">
-        <v>0.64</v>
+        <v>0.9574468085106383</v>
+      </c>
+      <c r="I214" t="n">
+        <v>72.0187548840844</v>
       </c>
     </row>
     <row r="215">
@@ -5373,19 +6017,22 @@
         <v>0.5</v>
       </c>
       <c r="D215" t="n">
-        <v>0.9863013698630136</v>
+        <v>0.9866666666666667</v>
       </c>
       <c r="E215" t="n">
         <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>97.90444374084473</v>
+        <v>68.02201271057129</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
       </c>
       <c r="H215" t="n">
-        <v>0.9736842105263158</v>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>82.02135972909612</v>
       </c>
     </row>
     <row r="216">
@@ -5395,19 +6042,22 @@
         <v>0.75</v>
       </c>
       <c r="D216" t="n">
-        <v>1</v>
+        <v>0.9896907216494846</v>
       </c>
       <c r="E216" t="n">
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>108.7102890014648</v>
+        <v>72.71909713745117</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
       </c>
       <c r="H216" t="n">
         <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>88.02292263610315</v>
       </c>
     </row>
     <row r="217">
@@ -5417,19 +6067,22 @@
         <v>0.95</v>
       </c>
       <c r="D217" t="n">
-        <v>1</v>
+        <v>0.9903956295708873</v>
       </c>
       <c r="E217" t="n">
         <v>0</v>
       </c>
       <c r="F217" t="n">
-        <v>142.6031351089478</v>
+        <v>73.15168380737305</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
       </c>
       <c r="H217" t="n">
         <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>106.0276113571242</v>
       </c>
     </row>
     <row r="218">
@@ -5439,19 +6092,22 @@
         <v>1</v>
       </c>
       <c r="D218" t="n">
-        <v>1</v>
+        <v>0.9914529914529915</v>
       </c>
       <c r="E218" t="n">
         <v>0</v>
       </c>
       <c r="F218" t="n">
-        <v>309.0231418609619</v>
+        <v>73.75407218933105</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
       </c>
       <c r="H218" t="n">
         <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>112.0291742641313</v>
       </c>
     </row>
     <row r="219">
@@ -5465,19 +6121,22 @@
         <v>0</v>
       </c>
       <c r="D219" t="n">
-        <v>0.6557377049180327</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="E219" t="n">
         <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>75.12402534484863</v>
+        <v>63.14706802368164</v>
       </c>
       <c r="G219" t="n">
-        <v>0.4878048780487805</v>
+        <v>0.75</v>
       </c>
       <c r="H219" t="n">
-        <v>0.4915254237288136</v>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="I219" t="n">
+        <v>70.01823391508205</v>
       </c>
     </row>
     <row r="220">
@@ -5487,19 +6146,22 @@
         <v>0.05</v>
       </c>
       <c r="D220" t="n">
-        <v>0.6804123711340206</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="E220" t="n">
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>85.81225872039795</v>
+        <v>63.15884590148926</v>
       </c>
       <c r="G220" t="n">
-        <v>0.631578947368421</v>
+        <v>0.8</v>
       </c>
       <c r="H220" t="n">
-        <v>0.5235897435897436</v>
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="I220" t="n">
+        <v>72.01875488408439</v>
       </c>
     </row>
     <row r="221">
@@ -5509,19 +6171,22 @@
         <v>0.25</v>
       </c>
       <c r="D221" t="n">
-        <v>0.8317707876982388</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E221" t="n">
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>96.01664543151855</v>
+        <v>63.20595741271973</v>
       </c>
       <c r="G221" t="n">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="H221" t="n">
-        <v>0.9743589743589743</v>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>80.02083876009377</v>
       </c>
     </row>
     <row r="222">
@@ -5531,19 +6196,22 @@
         <v>0.5</v>
       </c>
       <c r="D222" t="n">
-        <v>0.9876543209876543</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="E222" t="n">
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>107.4192523956299</v>
+        <v>63.43388557434082</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
       </c>
       <c r="H222" t="n">
         <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>86.02240166710081</v>
       </c>
     </row>
     <row r="223">
@@ -5553,19 +6221,22 @@
         <v>0.75</v>
       </c>
       <c r="D223" t="n">
-        <v>1</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>128.2616853713989</v>
+        <v>71.88773155212402</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
       </c>
       <c r="H223" t="n">
         <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>94.02448554311019</v>
       </c>
     </row>
     <row r="224">
@@ -5575,19 +6246,22 @@
         <v>0.95</v>
       </c>
       <c r="D224" t="n">
-        <v>1</v>
+        <v>0.9917782475922011</v>
       </c>
       <c r="E224" t="n">
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>181.2927722930908</v>
+        <v>72.50075340270996</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
       </c>
       <c r="H224" t="n">
         <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>105.2274029695233</v>
       </c>
     </row>
     <row r="225">
@@ -5597,19 +6271,22 @@
         <v>1</v>
       </c>
       <c r="D225" t="n">
-        <v>1</v>
+        <v>0.9922480620155039</v>
       </c>
       <c r="E225" t="n">
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>394.4520950317383</v>
+        <v>72.65400886535645</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
       </c>
       <c r="H225" t="n">
         <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>108.0281323261266</v>
       </c>
     </row>
   </sheetData>

--- a/Algorithm_tester/data_autosave/real_sex_sin.xlsx
+++ b/Algorithm_tester/data_autosave/real_sex_sin.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I225"/>
+  <dimension ref="A1:I253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>60.62698364257812</v>
+        <v>61.4469051361084</v>
       </c>
       <c r="G2" t="n">
         <v>0.9361702127659575</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>60.72196960449219</v>
+        <v>61.70496940612793</v>
       </c>
       <c r="G3" t="n">
         <v>0.9637537993920973</v>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>61.1879825592041</v>
+        <v>61.91802024841309</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>64.99385833740234</v>
+        <v>62.1488094329834</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>69.72789764404297</v>
+        <v>62.48903274536133</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>70.99514007568359</v>
+        <v>67.94147491455078</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>71.53701782226562</v>
+        <v>70.34087181091309</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>60.35780906677246</v>
+        <v>61.80715560913086</v>
       </c>
       <c r="G9" t="n">
         <v>0.6923076923076923</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>60.40325164794922</v>
+        <v>61.85388565063477</v>
       </c>
       <c r="G10" t="n">
         <v>0.7538461538461538</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>60.58502197265625</v>
+        <v>62.04080581665039</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>61.74206733703613</v>
+        <v>62.06798553466797</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>69.32473182678223</v>
+        <v>68.91703605651855</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>70.14164924621582</v>
+        <v>69.90485191345215</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>70.34587860107422</v>
+        <v>70.15180587768555</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>24.78671073913574</v>
+        <v>24.42812919616699</v>
       </c>
       <c r="G16" t="n">
         <v>0.9178082191780822</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>24.86538887023926</v>
+        <v>24.83410835266113</v>
       </c>
       <c r="G17" t="n">
         <v>0.9460706560922855</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>25.09498596191406</v>
+        <v>25.30503273010254</v>
       </c>
       <c r="G18" t="n">
         <v>0.967741935483871</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>26.60799026489258</v>
+        <v>25.49886703491211</v>
       </c>
       <c r="G19" t="n">
         <v>0.9736842105263158</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>28.49912643432617</v>
+        <v>25.83694458007812</v>
       </c>
       <c r="G20" t="n">
         <v>0.9767441860465116</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>29.2576789855957</v>
+        <v>27.61435508728027</v>
       </c>
       <c r="G21" t="n">
         <v>0.977852998065764</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>29.27613258361816</v>
+        <v>28.73802185058594</v>
       </c>
       <c r="G22" t="n">
         <v>0.9787234042553191</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>24.62100982666016</v>
+        <v>24.94978904724121</v>
       </c>
       <c r="G23" t="n">
         <v>0.6792452830188679</v>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>24.68080520629883</v>
+        <v>25.01425743103027</v>
       </c>
       <c r="G24" t="n">
         <v>0.7373356203544883</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>24.91998672485352</v>
+        <v>25.27213096618652</v>
       </c>
       <c r="G25" t="n">
         <v>0.9696969696969697</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>24.95598793029785</v>
+        <v>25.57587623596191</v>
       </c>
       <c r="G26" t="n">
         <v>0.975</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>28.42593193054199</v>
+        <v>28.15532684326172</v>
       </c>
       <c r="G27" t="n">
         <v>0.9761904761904762</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>28.94511222839355</v>
+        <v>28.81259918212891</v>
       </c>
       <c r="G28" t="n">
         <v>0.9782168186423505</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>29.07490730285645</v>
+        <v>28.9769172668457</v>
       </c>
       <c r="G29" t="n">
         <v>0.9787234042553191</v>
@@ -1224,7 +1224,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>gamb</t>
+          <t>fnvg</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
@@ -1236,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5344827586206896</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1.451015472412109</v>
+        <v>10.65182685852051</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3647058823529412</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>60.01562907007033</v>
@@ -1261,19 +1261,19 @@
         <v>0.05</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5477061469265367</v>
+        <v>0.9878787878787879</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.451730728149414</v>
+        <v>10.68973541259766</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0.9764705882352941</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3772076541459958</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>62.41625423287314</v>
@@ -1286,19 +1286,19 @@
         <v>0.25</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6153846153846154</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.466035842895508</v>
+        <v>10.75887680053711</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4444444444444444</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>72.0187548840844</v>
@@ -1311,19 +1311,19 @@
         <v>0.5</v>
       </c>
       <c r="D33" t="n">
-        <v>0.656</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1.575946807861328</v>
+        <v>10.88213920593262</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4880952380952381</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>82.02135972909612</v>
@@ -1336,19 +1336,19 @@
         <v>0.75</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6923076923076923</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.723051071166992</v>
+        <v>10.96796989440918</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5294117647058824</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>88.02292263610315</v>
@@ -1361,19 +1361,19 @@
         <v>0.95</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7766423357664233</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.807546615600586</v>
+        <v>11.12465858459473</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.6353515064562409</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>106.0276113571242</v>
@@ -1386,19 +1386,19 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8029197080291971</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1.859903335571289</v>
+        <v>11.27386093139648</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6707317073170732</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>112.0291742641313</v>
@@ -1415,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6194690265486725</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.451969146728516</v>
+        <v>10.55812835693359</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4487179487179487</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>70.01823391508205</v>
@@ -1440,19 +1440,19 @@
         <v>0.05</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6277786110694465</v>
+        <v>0.8577777777777778</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.452970504760742</v>
+        <v>10.58807373046875</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0.7584905660377358</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4577085361895489</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>72.01875488408439</v>
@@ -1465,19 +1465,19 @@
         <v>0.25</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6610169491525424</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1.456975936889648</v>
+        <v>10.70785522460938</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4936708860759494</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>80.02083876009377</v>
@@ -1490,19 +1490,19 @@
         <v>0.5</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6829268292682927</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.559019088745117</v>
+        <v>10.91098785400391</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5185185185185185</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>86.02240166710081</v>
@@ -1515,19 +1515,19 @@
         <v>0.75</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7131782945736435</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.684904098510742</v>
+        <v>11.44981384277344</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.5542168674698795</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>94.02448554311019</v>
@@ -1540,19 +1540,19 @@
         <v>0.95</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7826356589147287</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1.689863204956055</v>
+        <v>11.47327423095703</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6441767068273092</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>105.2274029695233</v>
@@ -1565,19 +1565,19 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.691102981567383</v>
+        <v>11.47913932800293</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>108.0281323261266</v>
@@ -1586,7 +1586,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>gqrs</t>
+          <t>fwhvg</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
@@ -1598,16 +1598,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9662921348314607</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>33.15210342407227</v>
+        <v>10.43820381164551</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9347826086956522</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
@@ -1623,16 +1623,16 @@
         <v>0.05</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9772860847018151</v>
+        <v>0.9878787878787879</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>33.87680053710938</v>
+        <v>10.47768592834473</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9562659846547314</v>
+        <v>0.9764705882352941</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -1648,16 +1648,16 @@
         <v>0.25</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9906542056074766</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>34.83700752258301</v>
+        <v>10.56194305419922</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9821428571428571</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>37.79506683349609</v>
+        <v>10.67876815795898</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>38.64479064941406</v>
+        <v>10.75506210327148</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>39.7132396697998</v>
+        <v>10.95776557922363</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>40.10176658630371</v>
+        <v>11.04903221130371</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8192771084337349</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>35.04204750061035</v>
+        <v>10.35380363464355</v>
       </c>
       <c r="G51" t="n">
-        <v>0.6938775510204082</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -1802,16 +1802,16 @@
         <v>0.05</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8528242841495853</v>
+        <v>0.8577777777777778</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>35.05024909973145</v>
+        <v>10.38289070129395</v>
       </c>
       <c r="G52" t="n">
-        <v>0.7499738356881214</v>
+        <v>0.7584905660377358</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -1827,16 +1827,16 @@
         <v>0.25</v>
       </c>
       <c r="D53" t="n">
-        <v>0.987012987012987</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>35.08305549621582</v>
+        <v>10.49923896789551</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9743589743589743</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -1852,16 +1852,16 @@
         <v>0.5</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9896907216494846</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>37.87589073181152</v>
+        <v>10.6959342956543</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9795918367346939</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
@@ -1877,16 +1877,16 @@
         <v>0.75</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9898989898989899</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>38.96808624267578</v>
+        <v>11.22212409973145</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9803921568627451</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
@@ -1902,16 +1902,16 @@
         <v>0.95</v>
       </c>
       <c r="D56" t="n">
-        <v>0.997979797979798</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>39.49832916259766</v>
+        <v>11.23795509338379</v>
       </c>
       <c r="G56" t="n">
-        <v>0.996078431372549</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>39.63088989257812</v>
+        <v>11.24191284179688</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -1948,7 +1948,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>hamilt</t>
+          <t>gamb</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
@@ -1960,19 +1960,19 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.967032967032967</v>
+        <v>0.5344827586206896</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>5.507946014404297</v>
+        <v>1.455068588256836</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9361702127659575</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9743589743589743</v>
+        <v>0.3647058823529412</v>
       </c>
       <c r="I58" t="n">
         <v>60.01562907007033</v>
@@ -1985,19 +1985,19 @@
         <v>0.05</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9762868710237131</v>
+        <v>0.5477061469265367</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>5.538415908813477</v>
+        <v>1.456069946289062</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9637537993920973</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9897435897435898</v>
+        <v>0.3772076541459958</v>
       </c>
       <c r="I59" t="n">
         <v>62.41625423287314</v>
@@ -2010,19 +2010,19 @@
         <v>0.25</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9876543209876543</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>5.915164947509766</v>
+        <v>1.459836959838867</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I60" t="n">
         <v>72.0187548840844</v>
@@ -2035,19 +2035,19 @@
         <v>0.5</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.656</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>6.099939346313477</v>
+        <v>1.46794319152832</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0.4880952380952381</v>
       </c>
       <c r="I61" t="n">
         <v>82.02135972909612</v>
@@ -2060,19 +2060,19 @@
         <v>0.75</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9898989898989899</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>6.675958633422852</v>
+        <v>1.479148864746094</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="I62" t="n">
         <v>88.02292263610315</v>
@@ -2085,19 +2085,19 @@
         <v>0.95</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9906821106821107</v>
+        <v>0.7766423357664233</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>6.99329376220703</v>
+        <v>1.80516242980957</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0.6353515064562409</v>
       </c>
       <c r="I63" t="n">
         <v>106.0276113571242</v>
@@ -2110,19 +2110,19 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>0.990990990990991</v>
+        <v>0.8029197080291971</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>7.207155227661133</v>
+        <v>1.816034317016602</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0.6707317073170732</v>
       </c>
       <c r="I64" t="n">
         <v>112.0291742641313</v>
@@ -2139,19 +2139,19 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.6194690265486725</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>5.504846572875977</v>
+        <v>1.465797424316406</v>
       </c>
       <c r="G65" t="n">
-        <v>0.6981132075471698</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="I65" t="n">
         <v>70.01823391508205</v>
@@ -2164,19 +2164,19 @@
         <v>0.05</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8550380517503805</v>
+        <v>0.6277786110694465</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>5.53126335144043</v>
+        <v>1.468038558959961</v>
       </c>
       <c r="G66" t="n">
-        <v>0.7584905660377358</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0.4577085361895489</v>
       </c>
       <c r="I66" t="n">
         <v>72.01875488408439</v>
@@ -2189,19 +2189,19 @@
         <v>0.25</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9863013698630136</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>5.636930465698242</v>
+        <v>1.47700309753418</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0.4936708860759494</v>
       </c>
       <c r="I67" t="n">
         <v>80.02083876009377</v>
@@ -2214,19 +2214,19 @@
         <v>0.5</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9885057471264368</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>6.130218505859375</v>
+        <v>1.493930816650391</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="I68" t="n">
         <v>86.02240166710081</v>
@@ -2239,19 +2239,19 @@
         <v>0.75</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9894736842105263</v>
+        <v>0.7131782945736435</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>6.16908073425293</v>
+        <v>1.782894134521484</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="I69" t="n">
         <v>94.02448554311019</v>
@@ -2264,19 +2264,19 @@
         <v>0.95</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9978947368421053</v>
+        <v>0.7826356589147287</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>6.496953964233398</v>
+        <v>1.793384552001953</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0.6441767068273092</v>
       </c>
       <c r="I70" t="n">
         <v>105.2274029695233</v>
@@ -2289,19 +2289,19 @@
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>6.578922271728516</v>
+        <v>1.79600715637207</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I71" t="n">
         <v>108.0281323261266</v>
@@ -2310,7 +2310,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>jqrs</t>
+          <t>gqrs</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr">
@@ -2322,16 +2322,16 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.9662921348314607</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1.592000007629395</v>
+        <v>32.43708610534668</v>
       </c>
       <c r="G72" t="n">
-        <v>0.3454545454545455</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="H72" t="n">
         <v>1</v>
@@ -2347,16 +2347,16 @@
         <v>0.05</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7230524642289349</v>
+        <v>0.9772860847018151</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>1.608200004696846</v>
+        <v>32.58085250854492</v>
       </c>
       <c r="G73" t="n">
-        <v>0.5933542319749217</v>
+        <v>0.9562659846547314</v>
       </c>
       <c r="H73" t="n">
         <v>1</v>
@@ -2372,16 +2372,16 @@
         <v>0.25</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0.9906542056074766</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>1.63400000333786</v>
+        <v>33.10799598693848</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0.9821428571428571</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>1.721000000834465</v>
+        <v>33.58292579650879</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>1.758999988436699</v>
+        <v>34.27696228027344</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>1.843800003500655</v>
+        <v>35.45026779174805</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>1.913999999989755</v>
+        <v>35.62021255493164</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -2501,16 +2501,16 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8125</v>
+        <v>0.8192771084337349</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>1.600000008940697</v>
+        <v>34.44600105285645</v>
       </c>
       <c r="G79" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="H79" t="n">
         <v>1</v>
@@ -2526,16 +2526,16 @@
         <v>0.05</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8478021978021978</v>
+        <v>0.8528242841495853</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>1.60840000808239</v>
+        <v>34.47880744934082</v>
       </c>
       <c r="G80" t="n">
-        <v>0.7431131019036954</v>
+        <v>0.7499738356881214</v>
       </c>
       <c r="H80" t="n">
         <v>1</v>
@@ -2551,16 +2551,16 @@
         <v>0.25</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>1.642000004649162</v>
+        <v>34.61003303527832</v>
       </c>
       <c r="G81" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="H81" t="n">
         <v>1</v>
@@ -2576,16 +2576,16 @@
         <v>0.5</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0.9896907216494846</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>1.679000005125999</v>
+        <v>34.65890884399414</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="H82" t="n">
         <v>1</v>
@@ -2601,16 +2601,16 @@
         <v>0.75</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>1.74100000000908</v>
+        <v>35.62235832214355</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0.9803921568627451</v>
       </c>
       <c r="H83" t="n">
         <v>1</v>
@@ -2626,16 +2626,16 @@
         <v>0.95</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0.997979797979798</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>1.742600000003586</v>
+        <v>36.02919578552246</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0.996078431372549</v>
       </c>
       <c r="H84" t="n">
         <v>1</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>1.743000000002212</v>
+        <v>36.13090515136719</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -2672,7 +2672,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>kali</t>
+          <t>hamilt</t>
         </is>
       </c>
       <c r="B86" s="1" t="inlineStr">
@@ -2690,13 +2690,13 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>1.666069030761719</v>
+        <v>5.333900451660156</v>
       </c>
       <c r="G86" t="n">
         <v>0.9361702127659575</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="I86" t="n">
         <v>60.01562907007033</v>
@@ -2709,19 +2709,19 @@
         <v>0.05</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9769771212394163</v>
+        <v>0.9762868710237131</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>1.667356491088867</v>
+        <v>5.438470840454102</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9562862669245649</v>
+        <v>0.9637537993920973</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0.9897435897435898</v>
       </c>
       <c r="I87" t="n">
         <v>62.41625423287314</v>
@@ -2734,16 +2734,16 @@
         <v>0.25</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9894736842105263</v>
+        <v>0.9876543209876543</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>1.700162887573242</v>
+        <v>5.644083023071289</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9814814814814815</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>1</v>
@@ -2759,16 +2759,16 @@
         <v>0.5</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9904761904761905</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>1.848936080932617</v>
+        <v>5.839824676513672</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9841269841269841</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>1</v>
@@ -2784,13 +2784,13 @@
         <v>0.75</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>1.909255981445312</v>
+        <v>6.150007247924805</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -2809,13 +2809,13 @@
         <v>0.95</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0.9906821106821107</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>1.945829391479492</v>
+        <v>6.253194808959961</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -2834,13 +2834,13 @@
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0.990990990990991</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>1.953125</v>
+        <v>6.284952163696289</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -2863,16 +2863,16 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8131868131868132</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>1.666069030761719</v>
+        <v>5.352020263671875</v>
       </c>
       <c r="G93" t="n">
-        <v>0.6851851851851852</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="H93" t="n">
         <v>1</v>
@@ -2888,16 +2888,16 @@
         <v>0.05</v>
       </c>
       <c r="D94" t="n">
-        <v>0.8479520479520479</v>
+        <v>0.8550380517503805</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>1.666593551635742</v>
+        <v>5.422830581665039</v>
       </c>
       <c r="G94" t="n">
-        <v>0.7431481481481482</v>
+        <v>0.7584905660377358</v>
       </c>
       <c r="H94" t="n">
         <v>1</v>
@@ -2913,16 +2913,16 @@
         <v>0.25</v>
       </c>
       <c r="D95" t="n">
-        <v>0.987012987012987</v>
+        <v>0.9863013698630136</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>1.668691635131836</v>
+        <v>5.706071853637695</v>
       </c>
       <c r="G95" t="n">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>1</v>
@@ -2938,16 +2938,16 @@
         <v>0.5</v>
       </c>
       <c r="D96" t="n">
-        <v>0.989247311827957</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>1.756906509399414</v>
+        <v>5.985021591186523</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9787234042553191</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
@@ -2963,16 +2963,16 @@
         <v>0.75</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9896907216494846</v>
+        <v>0.9894736842105263</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>1.884937286376953</v>
+        <v>6.275177001953125</v>
       </c>
       <c r="G97" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -2988,16 +2988,16 @@
         <v>0.95</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9901711540386348</v>
+        <v>0.9978947368421053</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>1.901721954345703</v>
+        <v>6.406974792480469</v>
       </c>
       <c r="G98" t="n">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -3013,13 +3013,13 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9902912621359223</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>1.905918121337891</v>
+        <v>6.439924240112305</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3034,7 +3034,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>mart</t>
+          <t>jqrs</t>
         </is>
       </c>
       <c r="B100" s="1" t="inlineStr">
@@ -3046,19 +3046,19 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>2.302169799804688</v>
+        <v>1.552000001072884</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>60.01562907007033</v>
@@ -3071,19 +3071,19 @@
         <v>0.05</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>0.7230524642289349</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>2.380704879760742</v>
+        <v>1.55380000025034</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>0.5933542319749217</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>62.41625423287314</v>
@@ -3096,16 +3096,16 @@
         <v>0.25</v>
       </c>
       <c r="D102" t="n">
-        <v>0.08888888888888889</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>2.624034881591797</v>
+        <v>1.58500000089407</v>
       </c>
       <c r="G102" t="n">
-        <v>0.04651162790697674</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>1</v>
@@ -3121,16 +3121,16 @@
         <v>0.5</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6363636363636364</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>2.791881561279297</v>
+        <v>1.601999998092651</v>
       </c>
       <c r="G103" t="n">
-        <v>0.4666666666666667</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
         <v>1</v>
@@ -3146,16 +3146,16 @@
         <v>0.75</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9629629629629629</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>3.309965133666992</v>
+        <v>1.631999999284744</v>
       </c>
       <c r="G104" t="n">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
         <v>1</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>3.780364990234374</v>
+        <v>1.729399999976158</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>4.178047180175781</v>
+        <v>1.754000000655651</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -3225,19 +3225,19 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>2.469062805175781</v>
+        <v>1.581000000238419</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>70.01823391508205</v>
@@ -3250,19 +3250,19 @@
         <v>0.05</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>0.8478021978021978</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>2.469396591186523</v>
+        <v>1.589200000464916</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>0.7431131019036954</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>72.01875488408439</v>
@@ -3275,19 +3275,19 @@
         <v>0.25</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>2.470731735229492</v>
+        <v>1.622000001370907</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>80.02083876009377</v>
@@ -3300,16 +3300,16 @@
         <v>0.5</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7865168539325843</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>2.547025680541992</v>
+        <v>1.626999996602535</v>
       </c>
       <c r="G110" t="n">
-        <v>0.6481481481481481</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
@@ -3325,16 +3325,16 @@
         <v>0.75</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9210526315789473</v>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>2.620935440063477</v>
+        <v>1.630999997258186</v>
       </c>
       <c r="G111" t="n">
-        <v>0.8536585365853658</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
@@ -3350,16 +3350,16 @@
         <v>0.95</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9842105263157894</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>3.457117080688477</v>
+        <v>1.643000003695488</v>
       </c>
       <c r="G112" t="n">
-        <v>0.9707317073170731</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>3.666162490844727</v>
+        <v>1.646000005304813</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -3396,7 +3396,7 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>nab</t>
+          <t>kali</t>
         </is>
       </c>
       <c r="B114" s="1" t="inlineStr">
@@ -3408,16 +3408,16 @@
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.967032967032967</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>6.791830062866211</v>
+        <v>1.675128936767578</v>
       </c>
       <c r="G114" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="H114" t="n">
         <v>1</v>
@@ -3433,16 +3433,16 @@
         <v>0.05</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9714975845410628</v>
+        <v>0.9769771212394163</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>6.792545318603516</v>
+        <v>1.675558090209961</v>
       </c>
       <c r="G115" t="n">
-        <v>0.9448484848484848</v>
+        <v>0.9562862669245649</v>
       </c>
       <c r="H115" t="n">
         <v>1</v>
@@ -3458,16 +3458,16 @@
         <v>0.25</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9830508474576272</v>
+        <v>0.9894736842105263</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>6.806135177612305</v>
+        <v>1.677036285400391</v>
       </c>
       <c r="G116" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9814814814814815</v>
       </c>
       <c r="H116" t="n">
         <v>1</v>
@@ -3483,16 +3483,16 @@
         <v>0.5</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.9904761904761905</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>7.315874099731445</v>
+        <v>1.70588493347168</v>
       </c>
       <c r="G117" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.9841269841269841</v>
       </c>
       <c r="H117" t="n">
         <v>1</v>
@@ -3508,16 +3508,16 @@
         <v>0.75</v>
       </c>
       <c r="D118" t="n">
-        <v>0.987012987012987</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>7.818937301635742</v>
+        <v>1.732110977172852</v>
       </c>
       <c r="G118" t="n">
-        <v>0.9743589743589743</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
         <v>1</v>
@@ -3533,16 +3533,16 @@
         <v>0.95</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9876543209876543</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>7.852888107299805</v>
+        <v>1.882457733154297</v>
       </c>
       <c r="G119" t="n">
-        <v>0.975609756097561</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
         <v>1</v>
@@ -3558,16 +3558,16 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9876543209876543</v>
+        <v>1</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>7.863044738769531</v>
+        <v>1.928091049194336</v>
       </c>
       <c r="G120" t="n">
-        <v>0.975609756097561</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
         <v>1</v>
@@ -3587,16 +3587,16 @@
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0.8043478260869565</v>
+        <v>0.8131868131868132</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>6.781816482543945</v>
+        <v>1.684904098510742</v>
       </c>
       <c r="G121" t="n">
-        <v>0.6727272727272727</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="H121" t="n">
         <v>1</v>
@@ -3612,16 +3612,16 @@
         <v>0.05</v>
       </c>
       <c r="D122" t="n">
-        <v>0.8404013377926421</v>
+        <v>0.8479520479520479</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>6.786251068115234</v>
+        <v>1.686334609985352</v>
       </c>
       <c r="G122" t="n">
-        <v>0.7321212121212122</v>
+        <v>0.7431481481481482</v>
       </c>
       <c r="H122" t="n">
         <v>1</v>
@@ -3637,16 +3637,16 @@
         <v>0.25</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9846153846153847</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>6.803989410400391</v>
+        <v>1.692056655883789</v>
       </c>
       <c r="G123" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.975</v>
       </c>
       <c r="H123" t="n">
         <v>1</v>
@@ -3662,16 +3662,16 @@
         <v>0.5</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9866666666666667</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>6.988048553466797</v>
+        <v>1.749992370605469</v>
       </c>
       <c r="G124" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="H124" t="n">
         <v>1</v>
@@ -3687,16 +3687,16 @@
         <v>0.75</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9873417721518988</v>
+        <v>0.9896907216494846</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>7.812738418579102</v>
+        <v>1.828193664550781</v>
       </c>
       <c r="G125" t="n">
-        <v>0.975</v>
+        <v>0.98</v>
       </c>
       <c r="H125" t="n">
         <v>1</v>
@@ -3712,16 +3712,16 @@
         <v>0.95</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9882729521315292</v>
+        <v>0.9901711540386348</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>7.825708389282227</v>
+        <v>1.848793029785156</v>
       </c>
       <c r="G126" t="n">
-        <v>0.9768181818181818</v>
+        <v>0.996</v>
       </c>
       <c r="H126" t="n">
         <v>1</v>
@@ -3737,16 +3737,16 @@
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9885057471264368</v>
+        <v>0.9902912621359223</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>7.828950881958008</v>
+        <v>1.85394287109375</v>
       </c>
       <c r="G127" t="n">
-        <v>0.9772727272727273</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
         <v>1</v>
@@ -3758,7 +3758,7 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>nk</t>
+          <t>mart</t>
         </is>
       </c>
       <c r="B128" s="1" t="inlineStr">
@@ -3770,19 +3770,19 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9629629629629629</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>2.16221809387207</v>
+        <v>2.100944519042969</v>
       </c>
       <c r="G128" t="n">
-        <v>0.9285714285714286</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>60.01562907007033</v>
@@ -3795,19 +3795,19 @@
         <v>0.05</v>
       </c>
       <c r="D129" t="n">
-        <v>0.975954415954416</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>2.246618270874023</v>
+        <v>2.323532104492188</v>
       </c>
       <c r="G129" t="n">
-        <v>0.9537815126050421</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>62.41625423287314</v>
@@ -3820,16 +3820,16 @@
         <v>0.25</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9894736842105263</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>2.37584114074707</v>
+        <v>2.502918243408203</v>
       </c>
       <c r="G130" t="n">
-        <v>0.98</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="H130" t="n">
         <v>1</v>
@@ -3845,16 +3845,16 @@
         <v>0.5</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9908256880733946</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>2.521991729736328</v>
+        <v>2.619028091430664</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H131" t="n">
         <v>1</v>
@@ -3870,16 +3870,16 @@
         <v>0.75</v>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>2.793073654174805</v>
+        <v>2.964019775390625</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="H132" t="n">
         <v>1</v>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>2.939367294311523</v>
+        <v>3.610658645629881</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>3.045082092285156</v>
+        <v>4.181861877441406</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>0.8163265306122449</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>2.290964126586914</v>
+        <v>2.37584114074707</v>
       </c>
       <c r="G135" t="n">
-        <v>0.6896551724137931</v>
+        <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>70.01823391508205</v>
@@ -3974,19 +3974,19 @@
         <v>0.05</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8503214984623987</v>
+        <v>0</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>2.315807342529297</v>
+        <v>2.387046813964844</v>
       </c>
       <c r="G136" t="n">
-        <v>0.7464609800362977</v>
+        <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>72.01875488408439</v>
@@ -3999,19 +3999,19 @@
         <v>0.25</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9863013698630136</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>2.415180206298828</v>
+        <v>2.431869506835938</v>
       </c>
       <c r="G137" t="n">
-        <v>0.9736842105263158</v>
+        <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>80.02083876009377</v>
@@ -4024,16 +4024,16 @@
         <v>0.5</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.7865168539325843</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>2.532958984375</v>
+        <v>2.488136291503906</v>
       </c>
       <c r="G138" t="n">
-        <v>0.9782608695652174</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="H138" t="n">
         <v>1</v>
@@ -4049,16 +4049,16 @@
         <v>0.75</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>2.588748931884766</v>
+        <v>2.727031707763672</v>
       </c>
       <c r="G139" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="H139" t="n">
         <v>1</v>
@@ -4074,16 +4074,16 @@
         <v>0.95</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9895547751217855</v>
+        <v>0.9842105263157894</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>2.670383453369141</v>
+        <v>3.356456756591797</v>
       </c>
       <c r="G140" t="n">
-        <v>0.979418150238819</v>
+        <v>0.9707317073170731</v>
       </c>
       <c r="H140" t="n">
         <v>1</v>
@@ -4099,16 +4099,16 @@
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9896907216494846</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>2.690792083740234</v>
+        <v>3.513813018798828</v>
       </c>
       <c r="G141" t="n">
-        <v>0.9795918367346939</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
         <v>1</v>
@@ -4120,7 +4120,7 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>pan-tomp</t>
+          <t>nab</t>
         </is>
       </c>
       <c r="B142" s="1" t="inlineStr">
@@ -4132,16 +4132,16 @@
         <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>0.967032967032967</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>1.234292984008789</v>
+        <v>7.056951522827148</v>
       </c>
       <c r="G142" t="n">
-        <v>0.9361702127659575</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H142" t="n">
         <v>1</v>
@@ -4157,16 +4157,16 @@
         <v>0.05</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9766436952877631</v>
+        <v>0.9714975845410628</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>1.247882843017578</v>
+        <v>7.056951522827148</v>
       </c>
       <c r="G143" t="n">
-        <v>0.9639417693169092</v>
+        <v>0.9448484848484848</v>
       </c>
       <c r="H143" t="n">
         <v>1</v>
@@ -4182,16 +4182,16 @@
         <v>0.25</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9887640449438202</v>
+        <v>0.9830508474576272</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>1.289129257202148</v>
+        <v>7.065773010253906</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="H144" t="n">
         <v>1</v>
@@ -4207,16 +4207,16 @@
         <v>0.5</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9900990099009901</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>1.350164413452148</v>
+        <v>7.070064544677734</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
@@ -4232,16 +4232,16 @@
         <v>0.75</v>
       </c>
       <c r="D146" t="n">
-        <v>0.990990990990991</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>1.453161239624023</v>
+        <v>7.079839706420898</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="H146" t="n">
         <v>1</v>
@@ -4257,16 +4257,16 @@
         <v>0.95</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>0.9876543209876543</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>1.543617248535156</v>
+        <v>7.602024078369141</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="H147" t="n">
         <v>1</v>
@@ -4282,16 +4282,16 @@
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>0.9876543209876543</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>1.585245132446289</v>
+        <v>7.618904113769531</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="H148" t="n">
         <v>1</v>
@@ -4311,16 +4311,16 @@
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>0.82</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>1.235246658325195</v>
+        <v>7.061958312988281</v>
       </c>
       <c r="G149" t="n">
-        <v>0.6949152542372882</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="H149" t="n">
         <v>1</v>
@@ -4336,16 +4336,16 @@
         <v>0.05</v>
       </c>
       <c r="D150" t="n">
-        <v>0.8534025974025974</v>
+        <v>0.8404013377926421</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>1.243209838867188</v>
+        <v>7.065105438232422</v>
       </c>
       <c r="G150" t="n">
-        <v>0.7559322033898306</v>
+        <v>0.7321212121212122</v>
       </c>
       <c r="H150" t="n">
         <v>1</v>
@@ -4361,16 +4361,16 @@
         <v>0.25</v>
       </c>
       <c r="D151" t="n">
-        <v>0.987012987012987</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>1.275062561035156</v>
+        <v>7.077693939208984</v>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="H151" t="n">
         <v>1</v>
@@ -4386,16 +4386,16 @@
         <v>0.5</v>
       </c>
       <c r="D152" t="n">
-        <v>0.9885057471264368</v>
+        <v>0.9866666666666667</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>1.291990280151367</v>
+        <v>7.086753845214844</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="H152" t="n">
         <v>1</v>
@@ -4411,16 +4411,16 @@
         <v>0.75</v>
       </c>
       <c r="D153" t="n">
-        <v>0.9890109890109891</v>
+        <v>0.9873417721518988</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>1.406192779541016</v>
+        <v>7.609844207763672</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>0.975</v>
       </c>
       <c r="H153" t="n">
         <v>1</v>
@@ -4436,16 +4436,16 @@
         <v>0.95</v>
       </c>
       <c r="D154" t="n">
-        <v>0.9978021978021978</v>
+        <v>0.9882729521315292</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>1.408290863037109</v>
+        <v>7.624530792236328</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>0.9768181818181818</v>
       </c>
       <c r="H154" t="n">
         <v>1</v>
@@ -4461,16 +4461,16 @@
         <v>1</v>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>1.408815383911133</v>
+        <v>7.628202438354492</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="H155" t="n">
         <v>1</v>
@@ -4482,7 +4482,7 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>rdeco</t>
+          <t>nk</t>
         </is>
       </c>
       <c r="B156" s="1" t="inlineStr">
@@ -4494,16 +4494,16 @@
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>0.9682539682539683</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>1.546000003814697</v>
+        <v>2.201080322265625</v>
       </c>
       <c r="G156" t="n">
-        <v>0.9384615384615385</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="H156" t="n">
         <v>1</v>
@@ -4519,16 +4519,16 @@
         <v>0.05</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9824235385210994</v>
+        <v>0.975954415954416</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>1.558000001311302</v>
+        <v>2.218389511108398</v>
       </c>
       <c r="G157" t="n">
-        <v>0.9658608058608058</v>
+        <v>0.9537815126050421</v>
       </c>
       <c r="H157" t="n">
         <v>1</v>
@@ -4544,16 +4544,16 @@
         <v>0.25</v>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>0.9894736842105263</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>1.703999996185303</v>
+        <v>2.305030822753906</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="H158" t="n">
         <v>1</v>
@@ -4569,13 +4569,13 @@
         <v>0.5</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>0.9908256880733946</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>1.857999995350838</v>
+        <v>2.404212951660156</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>1.90200001001358</v>
+        <v>2.487897872924805</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>1.970400002598762</v>
+        <v>2.708578109741211</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>2.018999993801117</v>
+        <v>2.734899520874023</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -4673,16 +4673,16 @@
         <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>0.8172043010752689</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>1.625</v>
+        <v>2.330780029296875</v>
       </c>
       <c r="G163" t="n">
-        <v>0.6909090909090909</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="H163" t="n">
         <v>1</v>
@@ -4698,16 +4698,16 @@
         <v>0.05</v>
       </c>
       <c r="D164" t="n">
-        <v>0.8537634408602151</v>
+        <v>0.8503214984623987</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>1.632400000095367</v>
+        <v>2.358818054199219</v>
       </c>
       <c r="G164" t="n">
-        <v>0.7527272727272727</v>
+        <v>0.7464609800362977</v>
       </c>
       <c r="H164" t="n">
         <v>1</v>
@@ -4723,16 +4723,16 @@
         <v>0.25</v>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>0.9863013698630136</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>1.662000000476837</v>
+        <v>2.470970153808594</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="H165" t="n">
         <v>1</v>
@@ -4748,16 +4748,16 @@
         <v>0.5</v>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>1.819999999999709</v>
+        <v>2.494096755981445</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="H166" t="n">
         <v>1</v>
@@ -4773,16 +4773,16 @@
         <v>0.75</v>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>1.837999999523163</v>
+        <v>2.527952194213867</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="H167" t="n">
         <v>1</v>
@@ -4798,16 +4798,16 @@
         <v>0.95</v>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>0.9895547751217855</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>1.91879999989178</v>
+        <v>2.596807479858398</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>0.979418150238819</v>
       </c>
       <c r="H168" t="n">
         <v>1</v>
@@ -4823,16 +4823,16 @@
         <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>0.9896907216494846</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>1.938999999983935</v>
+        <v>2.614021301269531</v>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="H169" t="n">
         <v>1</v>
@@ -4844,7 +4844,7 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>rpeak</t>
+          <t>pan-tomp</t>
         </is>
       </c>
       <c r="B170" s="1" t="inlineStr">
@@ -4856,16 +4856,16 @@
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>0.970873786407767</v>
+        <v>0.967032967032967</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.7360000014305115</v>
+        <v>1.238107681274414</v>
       </c>
       <c r="G170" t="n">
-        <v>0.9433962264150944</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="H170" t="n">
         <v>1</v>
@@ -4881,16 +4881,16 @@
         <v>0.05</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9883495145631068</v>
+        <v>0.9766436952877631</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.7467999964952469</v>
+        <v>1.243400573730469</v>
       </c>
       <c r="G171" t="n">
-        <v>0.9773584905660377</v>
+        <v>0.9639417693169092</v>
       </c>
       <c r="H171" t="n">
         <v>1</v>
@@ -4906,13 +4906,13 @@
         <v>0.25</v>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>0.9887640449438202</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.7659999877214432</v>
+        <v>1.265287399291992</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -4931,13 +4931,13 @@
         <v>0.5</v>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>0.9900990099009901</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.8200000077486038</v>
+        <v>1.287221908569336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -4956,13 +4956,13 @@
         <v>0.75</v>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>0.990990990990991</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.8610000000044238</v>
+        <v>1.307010650634766</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>0.8980000036302953</v>
+        <v>1.34739875793457</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9279999999562278</v>
+        <v>1.353979110717773</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -5035,16 +5035,16 @@
         <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.82</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.7430000007152557</v>
+        <v>1.2359619140625</v>
       </c>
       <c r="G177" t="n">
-        <v>0.6981132075471698</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="H177" t="n">
         <v>1</v>
@@ -5060,16 +5060,16 @@
         <v>0.05</v>
       </c>
       <c r="D178" t="n">
-        <v>0.8577777777777778</v>
+        <v>0.8534025974025974</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>0.75</v>
+        <v>1.237201690673828</v>
       </c>
       <c r="G178" t="n">
-        <v>0.7584905660377358</v>
+        <v>0.7559322033898306</v>
       </c>
       <c r="H178" t="n">
         <v>1</v>
@@ -5085,13 +5085,13 @@
         <v>0.25</v>
       </c>
       <c r="D179" t="n">
-        <v>1</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.7779999971389771</v>
+        <v>1.242160797119141</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -5110,13 +5110,13 @@
         <v>0.5</v>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>0.7859999984502792</v>
+        <v>1.322031021118164</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -5135,13 +5135,13 @@
         <v>0.75</v>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>0.9890109890109891</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>0.8159999999916181</v>
+        <v>1.355886459350586</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -5160,13 +5160,13 @@
         <v>0.95</v>
       </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>0.9978021978021978</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>0.8311999999918044</v>
+        <v>1.356840133666992</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.8349999999918509</v>
+        <v>1.357078552246094</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -5206,7 +5206,7 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>two-avg</t>
+          <t>rdeco</t>
         </is>
       </c>
       <c r="B184" s="1" t="inlineStr">
@@ -5218,16 +5218,16 @@
         <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>0.967032967032967</v>
+        <v>0.9682539682539683</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>2.932071685791016</v>
+        <v>1.524000003933907</v>
       </c>
       <c r="G184" t="n">
-        <v>0.9361702127659575</v>
+        <v>0.9384615384615385</v>
       </c>
       <c r="H184" t="n">
         <v>1</v>
@@ -5243,16 +5243,16 @@
         <v>0.05</v>
       </c>
       <c r="D185" t="n">
-        <v>0.9769771212394163</v>
+        <v>0.9824235385210994</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>2.93736457824707</v>
+        <v>1.540799999982119</v>
       </c>
       <c r="G185" t="n">
-        <v>0.9639417693169092</v>
+        <v>0.9658608058608058</v>
       </c>
       <c r="H185" t="n">
         <v>1</v>
@@ -5274,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>2.949953079223633</v>
+        <v>1.651000000536442</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>3.184795379638672</v>
+        <v>1.708000004291534</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>3.399133682250977</v>
+        <v>1.764000006020069</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>3.413677215576172</v>
+        <v>1.794199999421835</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>3.415822982788086</v>
+        <v>1.795999996364117</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -5397,16 +5397,16 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>2.936124801635742</v>
+        <v>1.616999998688698</v>
       </c>
       <c r="G191" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="H191" t="n">
         <v>1</v>
@@ -5422,16 +5422,16 @@
         <v>0.05</v>
       </c>
       <c r="D192" t="n">
-        <v>0.8520138089758343</v>
+        <v>0.8537634408602151</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>2.93889045715332</v>
+        <v>1.618999999016523</v>
       </c>
       <c r="G192" t="n">
-        <v>0.7538461538461538</v>
+        <v>0.7527272727272727</v>
       </c>
       <c r="H192" t="n">
         <v>1</v>
@@ -5447,13 +5447,13 @@
         <v>0.25</v>
       </c>
       <c r="D193" t="n">
-        <v>0.9873417721518988</v>
+        <v>1</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>2.949953079223633</v>
+        <v>1.627000000327826</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>3.006935119628906</v>
+        <v>1.731000006198883</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -5503,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>3.380060195922852</v>
+        <v>1.831000000238419</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>3.385400772094727</v>
+        <v>1.853399999439716</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -5553,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>3.386735916137695</v>
+        <v>1.858999999240041</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -5568,7 +5568,7 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>unsw</t>
+          <t>rpeak</t>
         </is>
       </c>
       <c r="B198" s="1" t="inlineStr">
@@ -5580,19 +5580,19 @@
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>0.6771653543307087</v>
+        <v>0.970873786407767</v>
       </c>
       <c r="E198" t="n">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>8.366999998688698</v>
+        <v>0.7269999980926514</v>
       </c>
       <c r="G198" t="n">
-        <v>0.9423076923076923</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="H198" t="n">
-        <v>0.5119047619047619</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>60.01562907007033</v>
@@ -5605,19 +5605,19 @@
         <v>0.05</v>
       </c>
       <c r="D199" t="n">
-        <v>0.8530443595540657</v>
+        <v>0.9883495145631068</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>8.560799998044967</v>
+        <v>0.7317999988794327</v>
       </c>
       <c r="G199" t="n">
-        <v>0.9769230769230769</v>
+        <v>0.9773584905660377</v>
       </c>
       <c r="H199" t="n">
-        <v>0.8047619047619048</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>62.41625423287314</v>
@@ -5636,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>8.890000000596046</v>
+        <v>0.7419999986886978</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>9.416999995708466</v>
+        <v>0.7540000006556511</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>10.20299999415874</v>
+        <v>0.7829999998211861</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>11.62679999999236</v>
+        <v>0.8295999974012375</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -5736,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>12.49199999999837</v>
+        <v>0.840999998152256</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>8.627000004053116</v>
+        <v>0.7390000000596046</v>
       </c>
       <c r="G205" t="n">
         <v>0.6981132075471698</v>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>8.704000005126</v>
+        <v>0.7456000000238419</v>
       </c>
       <c r="G206" t="n">
         <v>0.7584905660377358</v>
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>9.012000009417534</v>
+        <v>0.7719999998807907</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>9.327000007033348</v>
+        <v>0.7800000011920929</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>9.524999999994179</v>
+        <v>0.7900000009685755</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>9.749800007342127</v>
+        <v>0.7923999983817339</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>9.806000009179115</v>
+        <v>0.7929999977350235</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -5930,7 +5930,7 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>wqrs</t>
+          <t>two-avg</t>
         </is>
       </c>
       <c r="B212" s="1" t="inlineStr">
@@ -5942,19 +5942,19 @@
         <v>0</v>
       </c>
       <c r="D212" t="n">
-        <v>0.6904761904761905</v>
+        <v>0.967032967032967</v>
       </c>
       <c r="E212" t="n">
         <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>63.1868839263916</v>
+        <v>2.819061279296875</v>
       </c>
       <c r="G212" t="n">
-        <v>0.9555555555555556</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="H212" t="n">
-        <v>0.5272727272727272</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>60.01562907007033</v>
@@ -5967,19 +5967,19 @@
         <v>0.05</v>
       </c>
       <c r="D213" t="n">
-        <v>0.7206349206349206</v>
+        <v>0.9769771212394163</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
       </c>
       <c r="F213" t="n">
-        <v>63.19289207458496</v>
+        <v>2.822637557983398</v>
       </c>
       <c r="G213" t="n">
-        <v>0.9822222222222222</v>
+        <v>0.9639417693169092</v>
       </c>
       <c r="H213" t="n">
-        <v>0.5638502673796791</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>62.41625423287314</v>
@@ -5992,19 +5992,19 @@
         <v>0.25</v>
       </c>
       <c r="D214" t="n">
-        <v>0.9767441860465116</v>
+        <v>1</v>
       </c>
       <c r="E214" t="n">
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>63.3082389831543</v>
+        <v>2.828836441040039</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
       </c>
       <c r="H214" t="n">
-        <v>0.9574468085106383</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>72.0187548840844</v>
@@ -6017,13 +6017,13 @@
         <v>0.5</v>
       </c>
       <c r="D215" t="n">
-        <v>0.9866666666666667</v>
+        <v>1</v>
       </c>
       <c r="E215" t="n">
         <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>68.02201271057129</v>
+        <v>2.838850021362305</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -6042,13 +6042,13 @@
         <v>0.75</v>
       </c>
       <c r="D216" t="n">
-        <v>0.9896907216494846</v>
+        <v>1</v>
       </c>
       <c r="E216" t="n">
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>72.71909713745117</v>
+        <v>2.852201461791992</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -6067,13 +6067,13 @@
         <v>0.95</v>
       </c>
       <c r="D217" t="n">
-        <v>0.9903956295708873</v>
+        <v>1</v>
       </c>
       <c r="E217" t="n">
         <v>0</v>
       </c>
       <c r="F217" t="n">
-        <v>73.15168380737305</v>
+        <v>3.150272369384765</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -6092,13 +6092,13 @@
         <v>1</v>
       </c>
       <c r="D218" t="n">
-        <v>0.9914529914529915</v>
+        <v>1</v>
       </c>
       <c r="E218" t="n">
         <v>0</v>
       </c>
       <c r="F218" t="n">
-        <v>73.75407218933105</v>
+        <v>3.270864486694336</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -6121,19 +6121,19 @@
         <v>0</v>
       </c>
       <c r="D219" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E219" t="n">
         <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>63.14706802368164</v>
+        <v>2.83503532409668</v>
       </c>
       <c r="G219" t="n">
-        <v>0.75</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="H219" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>70.01823391508205</v>
@@ -6146,19 +6146,19 @@
         <v>0.05</v>
       </c>
       <c r="D220" t="n">
-        <v>0.7532467532467533</v>
+        <v>0.8520138089758343</v>
       </c>
       <c r="E220" t="n">
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>63.15884590148926</v>
+        <v>2.837848663330078</v>
       </c>
       <c r="G220" t="n">
-        <v>0.8</v>
+        <v>0.7538461538461538</v>
       </c>
       <c r="H220" t="n">
-        <v>0.6571428571428571</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>72.01875488408439</v>
@@ -6171,13 +6171,13 @@
         <v>0.25</v>
       </c>
       <c r="D221" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9873417721518988</v>
       </c>
       <c r="E221" t="n">
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>63.20595741271973</v>
+        <v>2.849102020263672</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -6196,13 +6196,13 @@
         <v>0.5</v>
       </c>
       <c r="D222" t="n">
-        <v>0.9885057471264368</v>
+        <v>1</v>
       </c>
       <c r="E222" t="n">
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>63.43388557434082</v>
+        <v>2.856969833374023</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -6221,13 +6221,13 @@
         <v>0.75</v>
       </c>
       <c r="D223" t="n">
-        <v>0.9898989898989899</v>
+        <v>1</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>71.88773155212402</v>
+        <v>3.061056137084961</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -6246,13 +6246,13 @@
         <v>0.95</v>
       </c>
       <c r="D224" t="n">
-        <v>0.9917782475922011</v>
+        <v>1</v>
       </c>
       <c r="E224" t="n">
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>72.50075340270996</v>
+        <v>3.173017501831055</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -6271,13 +6271,13 @@
         <v>1</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9922480620155039</v>
+        <v>1</v>
       </c>
       <c r="E225" t="n">
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>72.65400886535645</v>
+        <v>3.201007843017578</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -6289,8 +6289,732 @@
         <v>108.0281323261266</v>
       </c>
     </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>unsw</t>
+        </is>
+      </c>
+      <c r="B226" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C226" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.6771653543307087</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>8.315999999642372</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.9423076923076923</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.5119047619047619</v>
+      </c>
+      <c r="I226" t="n">
+        <v>60.01562907007033</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n"/>
+      <c r="B227" s="1" t="n"/>
+      <c r="C227" s="1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.8530443595540657</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0</v>
+      </c>
+      <c r="F227" t="n">
+        <v>8.392199997603893</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.9769230769230769</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.8047619047619048</v>
+      </c>
+      <c r="I227" t="n">
+        <v>62.41625423287314</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n"/>
+      <c r="B228" s="1" t="n"/>
+      <c r="C228" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" t="n">
+        <v>8.604999996721745</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>72.0187548840844</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n"/>
+      <c r="B229" s="1" t="n"/>
+      <c r="C229" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0</v>
+      </c>
+      <c r="F229" t="n">
+        <v>8.864999998360872</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1</v>
+      </c>
+      <c r="H229" t="n">
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>82.02135972909612</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n"/>
+      <c r="B230" s="1" t="n"/>
+      <c r="C230" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0</v>
+      </c>
+      <c r="F230" t="n">
+        <v>9.318999998271465</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1</v>
+      </c>
+      <c r="H230" t="n">
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>88.02292263610315</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n"/>
+      <c r="B231" s="1" t="n"/>
+      <c r="C231" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0</v>
+      </c>
+      <c r="F231" t="n">
+        <v>10.99939999729395</v>
+      </c>
+      <c r="G231" t="n">
+        <v>1</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>106.0276113571242</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n"/>
+      <c r="B232" s="1" t="n"/>
+      <c r="C232" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0</v>
+      </c>
+      <c r="F232" t="n">
+        <v>12.08599999547005</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1</v>
+      </c>
+      <c r="H232" t="n">
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>112.0291742641313</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n"/>
+      <c r="B233" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.8222222222222222</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0</v>
+      </c>
+      <c r="F233" t="n">
+        <v>8.598999999463558</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.6981132075471698</v>
+      </c>
+      <c r="H233" t="n">
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>70.01823391508205</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n"/>
+      <c r="B234" s="1" t="n"/>
+      <c r="C234" s="1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.8577777777777778</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0</v>
+      </c>
+      <c r="F234" t="n">
+        <v>8.706000000238419</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.7584905660377358</v>
+      </c>
+      <c r="H234" t="n">
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>72.01875488408439</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n"/>
+      <c r="B235" s="1" t="n"/>
+      <c r="C235" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0</v>
+      </c>
+      <c r="F235" t="n">
+        <v>9.13400000333786</v>
+      </c>
+      <c r="G235" t="n">
+        <v>1</v>
+      </c>
+      <c r="H235" t="n">
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>80.02083876009377</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n"/>
+      <c r="B236" s="1" t="n"/>
+      <c r="C236" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0</v>
+      </c>
+      <c r="F236" t="n">
+        <v>9.206000000238419</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1</v>
+      </c>
+      <c r="H236" t="n">
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>86.02240166710081</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n"/>
+      <c r="B237" s="1" t="n"/>
+      <c r="C237" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0</v>
+      </c>
+      <c r="F237" t="n">
+        <v>9.391000002622604</v>
+      </c>
+      <c r="G237" t="n">
+        <v>1</v>
+      </c>
+      <c r="H237" t="n">
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>94.02448554311019</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n"/>
+      <c r="B238" s="1" t="n"/>
+      <c r="C238" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0</v>
+      </c>
+      <c r="F238" t="n">
+        <v>9.462999999523163</v>
+      </c>
+      <c r="G238" t="n">
+        <v>1</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>105.2274029695233</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n"/>
+      <c r="B239" s="1" t="n"/>
+      <c r="C239" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0</v>
+      </c>
+      <c r="F239" t="n">
+        <v>9.480999998748302</v>
+      </c>
+      <c r="G239" t="n">
+        <v>1</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>108.0281323261266</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>wqrs</t>
+        </is>
+      </c>
+      <c r="B240" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.6904761904761905</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0</v>
+      </c>
+      <c r="F240" t="n">
+        <v>64.55612182617188</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0.5272727272727272</v>
+      </c>
+      <c r="I240" t="n">
+        <v>60.01562907007033</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n"/>
+      <c r="B241" s="1" t="n"/>
+      <c r="C241" s="1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.7206349206349206</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0</v>
+      </c>
+      <c r="F241" t="n">
+        <v>64.59746360778809</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.9822222222222222</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0.5638502673796791</v>
+      </c>
+      <c r="I241" t="n">
+        <v>62.41625423287314</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n"/>
+      <c r="B242" s="1" t="n"/>
+      <c r="C242" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.9767441860465116</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0</v>
+      </c>
+      <c r="F242" t="n">
+        <v>64.66388702392578</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0.9574468085106383</v>
+      </c>
+      <c r="I242" t="n">
+        <v>72.0187548840844</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n"/>
+      <c r="B243" s="1" t="n"/>
+      <c r="C243" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.9866666666666667</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0</v>
+      </c>
+      <c r="F243" t="n">
+        <v>64.68915939331055</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1</v>
+      </c>
+      <c r="H243" t="n">
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>82.02135972909612</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n"/>
+      <c r="B244" s="1" t="n"/>
+      <c r="C244" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.9896907216494846</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0</v>
+      </c>
+      <c r="F244" t="n">
+        <v>64.75400924682617</v>
+      </c>
+      <c r="G244" t="n">
+        <v>1</v>
+      </c>
+      <c r="H244" t="n">
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>88.02292263610315</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n"/>
+      <c r="B245" s="1" t="n"/>
+      <c r="C245" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.9903956295708873</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0</v>
+      </c>
+      <c r="F245" t="n">
+        <v>70.67389488220215</v>
+      </c>
+      <c r="G245" t="n">
+        <v>1</v>
+      </c>
+      <c r="H245" t="n">
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>106.0276113571242</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n"/>
+      <c r="B246" s="1" t="n"/>
+      <c r="C246" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.9914529914529915</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0</v>
+      </c>
+      <c r="F246" t="n">
+        <v>72.30997085571289</v>
+      </c>
+      <c r="G246" t="n">
+        <v>1</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>112.0291742641313</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n"/>
+      <c r="B247" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0</v>
+      </c>
+      <c r="F247" t="n">
+        <v>64.6369457244873</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="I247" t="n">
+        <v>70.01823391508205</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n"/>
+      <c r="B248" s="1" t="n"/>
+      <c r="C248" s="1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.7532467532467533</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0</v>
+      </c>
+      <c r="F248" t="n">
+        <v>64.63775634765625</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="I248" t="n">
+        <v>72.01875488408439</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n"/>
+      <c r="B249" s="1" t="n"/>
+      <c r="C249" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0</v>
+      </c>
+      <c r="F249" t="n">
+        <v>64.64099884033203</v>
+      </c>
+      <c r="G249" t="n">
+        <v>1</v>
+      </c>
+      <c r="H249" t="n">
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>80.02083876009377</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n"/>
+      <c r="B250" s="1" t="n"/>
+      <c r="C250" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.9885057471264368</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0</v>
+      </c>
+      <c r="F250" t="n">
+        <v>64.79406356811523</v>
+      </c>
+      <c r="G250" t="n">
+        <v>1</v>
+      </c>
+      <c r="H250" t="n">
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>86.02240166710081</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n"/>
+      <c r="B251" s="1" t="n"/>
+      <c r="C251" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.9898989898989899</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0</v>
+      </c>
+      <c r="F251" t="n">
+        <v>69.98920440673828</v>
+      </c>
+      <c r="G251" t="n">
+        <v>1</v>
+      </c>
+      <c r="H251" t="n">
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>94.02448554311019</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n"/>
+      <c r="B252" s="1" t="n"/>
+      <c r="C252" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.9917782475922011</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0</v>
+      </c>
+      <c r="F252" t="n">
+        <v>71.41551971435547</v>
+      </c>
+      <c r="G252" t="n">
+        <v>1</v>
+      </c>
+      <c r="H252" t="n">
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>105.2274029695233</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n"/>
+      <c r="B253" s="1" t="n"/>
+      <c r="C253" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.9922480620155039</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0</v>
+      </c>
+      <c r="F253" t="n">
+        <v>71.77209854125977</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>108.0281323261266</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="54">
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="A16:A29"/>
     <mergeCell ref="A30:A43"/>
@@ -6307,6 +7031,8 @@
     <mergeCell ref="A184:A197"/>
     <mergeCell ref="A198:A211"/>
     <mergeCell ref="A212:A225"/>
+    <mergeCell ref="A226:A239"/>
+    <mergeCell ref="A240:A253"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="B16:B22"/>
@@ -6339,6 +7065,10 @@
     <mergeCell ref="B205:B211"/>
     <mergeCell ref="B212:B218"/>
     <mergeCell ref="B219:B225"/>
+    <mergeCell ref="B226:B232"/>
+    <mergeCell ref="B233:B239"/>
+    <mergeCell ref="B240:B246"/>
+    <mergeCell ref="B247:B253"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Algorithm_tester/data_autosave/real_sex_sin.xlsx
+++ b/Algorithm_tester/data_autosave/real_sex_sin.xlsx
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>61.4469051361084</v>
+        <v>61.91587448120117</v>
       </c>
       <c r="G2" t="n">
         <v>0.9361702127659575</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>61.70496940612793</v>
+        <v>61.94720268249512</v>
       </c>
       <c r="G3" t="n">
         <v>0.9637537993920973</v>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>61.91802024841309</v>
+        <v>62.01791763305664</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>62.1488094329834</v>
+        <v>62.11423873901367</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>62.48903274536133</v>
+        <v>62.3171329498291</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>67.94147491455078</v>
+        <v>62.64753341674805</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>70.34087181091309</v>
+        <v>62.91675567626953</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>61.80715560913086</v>
+        <v>61.96308135986328</v>
       </c>
       <c r="G9" t="n">
         <v>0.6923076923076923</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>61.85388565063477</v>
+        <v>61.97891235351562</v>
       </c>
       <c r="G10" t="n">
         <v>0.7538461538461538</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>62.04080581665039</v>
+        <v>62.042236328125</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>62.06798553466797</v>
+        <v>62.3021125793457</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>68.91703605651855</v>
+        <v>62.41893768310547</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>69.90485191345215</v>
+        <v>62.54634857177734</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>70.15180587768555</v>
+        <v>62.57820129394531</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>24.42812919616699</v>
+        <v>24.66511726379395</v>
       </c>
       <c r="G16" t="n">
         <v>0.9178082191780822</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>24.83410835266113</v>
+        <v>24.86066818237305</v>
       </c>
       <c r="G17" t="n">
         <v>0.9460706560922855</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>25.30503273010254</v>
+        <v>25.08020401000977</v>
       </c>
       <c r="G18" t="n">
         <v>0.967741935483871</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>25.49886703491211</v>
+        <v>25.33102035522461</v>
       </c>
       <c r="G19" t="n">
         <v>0.9736842105263158</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>25.83694458007812</v>
+        <v>25.54202079772949</v>
       </c>
       <c r="G20" t="n">
         <v>0.9767441860465116</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>27.61435508728027</v>
+        <v>25.83389282226562</v>
       </c>
       <c r="G21" t="n">
         <v>0.977852998065764</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>28.73802185058594</v>
+        <v>25.91586112976074</v>
       </c>
       <c r="G22" t="n">
         <v>0.9787234042553191</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>24.94978904724121</v>
+        <v>24.95718002319336</v>
       </c>
       <c r="G23" t="n">
         <v>0.6792452830188679</v>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>25.01425743103027</v>
+        <v>24.98555183410645</v>
       </c>
       <c r="G24" t="n">
         <v>0.7373356203544883</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>25.27213096618652</v>
+        <v>25.09903907775879</v>
       </c>
       <c r="G25" t="n">
         <v>0.9696969696969697</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>25.57587623596191</v>
+        <v>25.38704872131348</v>
       </c>
       <c r="G26" t="n">
         <v>0.975</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>28.15532684326172</v>
+        <v>25.5281925201416</v>
       </c>
       <c r="G27" t="n">
         <v>0.9761904761904762</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>28.81259918212891</v>
+        <v>25.65293312072754</v>
       </c>
       <c r="G28" t="n">
         <v>0.9782168186423505</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>28.9769172668457</v>
+        <v>25.68411827087402</v>
       </c>
       <c r="G29" t="n">
         <v>0.9787234042553191</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>10.65182685852051</v>
+        <v>10.19382476806641</v>
       </c>
       <c r="G30" t="n">
         <v>0.9411764705882353</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>10.68973541259766</v>
+        <v>10.3337287902832</v>
       </c>
       <c r="G31" t="n">
         <v>0.9764705882352941</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>10.75887680053711</v>
+        <v>10.50233840942383</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>10.88213920593262</v>
+        <v>10.57100296020508</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>10.96796989440918</v>
+        <v>10.72096824645996</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>11.12465858459473</v>
+        <v>10.81156730651855</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>11.27386093139648</v>
+        <v>10.85019111633301</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>10.55812835693359</v>
+        <v>10.3459358215332</v>
       </c>
       <c r="G37" t="n">
         <v>0.6981132075471698</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>10.58807373046875</v>
+        <v>10.3665828704834</v>
       </c>
       <c r="G38" t="n">
         <v>0.7584905660377358</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>10.70785522460938</v>
+        <v>10.44917106628418</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>10.91098785400391</v>
+        <v>10.46299934387207</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>11.44981384277344</v>
+        <v>10.4820728302002</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>11.47327423095703</v>
+        <v>10.61005592346191</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>11.47913932800293</v>
+        <v>10.64205169677734</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>10.43820381164551</v>
+        <v>9.042024612426758</v>
       </c>
       <c r="G44" t="n">
         <v>0.9411764705882353</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>10.47768592834473</v>
+        <v>9.058904647827148</v>
       </c>
       <c r="G45" t="n">
         <v>0.9764705882352941</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>10.56194305419922</v>
+        <v>9.107351303100586</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>10.67876815795898</v>
+        <v>9.20414924621582</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>10.75506210327148</v>
+        <v>9.24992561340332</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>10.95776557922363</v>
+        <v>9.350299835205078</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>11.04903221130371</v>
+        <v>9.443998336791992</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.82</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>10.35380363464355</v>
+        <v>9.02104377746582</v>
       </c>
       <c r="G51" t="n">
-        <v>0.6981132075471698</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -1802,16 +1802,16 @@
         <v>0.05</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8577777777777778</v>
+        <v>0.856</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>10.38289070129395</v>
+        <v>9.035825729370117</v>
       </c>
       <c r="G52" t="n">
-        <v>0.7584905660377358</v>
+        <v>0.7559322033898306</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>10.49923896789551</v>
+        <v>9.094953536987305</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>10.6959342956543</v>
+        <v>9.142160415649414</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>11.22212409973145</v>
+        <v>9.220123291015625</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>11.23795509338379</v>
+        <v>9.22088623046875</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>11.24191284179688</v>
+        <v>9.221076965332031</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>1.455068588256836</v>
+        <v>1.439094543457031</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>1.456069946289062</v>
+        <v>1.439666748046875</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>1.459836959838867</v>
+        <v>1.446723937988281</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>1.46794319152832</v>
+        <v>1.448869705200195</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1.479148864746094</v>
+        <v>1.455307006835938</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>1.80516242980957</v>
+        <v>1.471567153930664</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>1.816034317016602</v>
+        <v>1.47700309753418</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2145,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>1.465797424316406</v>
+        <v>1.43122673034668</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>1.468038558959961</v>
+        <v>1.433563232421875</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>1.47700309753418</v>
+        <v>1.442909240722656</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>1.493930816650391</v>
+        <v>1.446962356567383</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>1.782894134521484</v>
+        <v>1.452922821044922</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>1.793384552001953</v>
+        <v>1.457691192626953</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>1.79600715637207</v>
+        <v>1.458883285522461</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>32.43708610534668</v>
+        <v>32.15503692626953</v>
       </c>
       <c r="G72" t="n">
         <v>0.9347826086956522</v>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>32.58085250854492</v>
+        <v>32.30910301208496</v>
       </c>
       <c r="G73" t="n">
         <v>0.9562659846547314</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>33.10799598693848</v>
+        <v>32.81807899475098</v>
       </c>
       <c r="G74" t="n">
         <v>0.9821428571428571</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>33.58292579650879</v>
+        <v>32.99212455749512</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>34.27696228027344</v>
+        <v>33.62298011779785</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>35.45026779174805</v>
+        <v>34.09276008605957</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>35.62021255493164</v>
+        <v>34.52420234680176</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>34.44600105285645</v>
+        <v>32.85717964172363</v>
       </c>
       <c r="G79" t="n">
         <v>0.6938775510204082</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>34.47880744934082</v>
+        <v>32.94572830200195</v>
       </c>
       <c r="G80" t="n">
         <v>0.7499738356881214</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>34.61003303527832</v>
+        <v>33.29992294311523</v>
       </c>
       <c r="G81" t="n">
         <v>0.9743589743589743</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>34.65890884399414</v>
+        <v>33.88619422912598</v>
       </c>
       <c r="G82" t="n">
         <v>0.9795918367346939</v>
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>35.62235832214355</v>
+        <v>34.1339111328125</v>
       </c>
       <c r="G83" t="n">
         <v>0.9803921568627451</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>36.02919578552246</v>
+        <v>34.39865112304688</v>
       </c>
       <c r="G84" t="n">
         <v>0.996078431372549</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>36.13090515136719</v>
+        <v>34.46483612060547</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>5.333900451660156</v>
+        <v>4.981040954589844</v>
       </c>
       <c r="G86" t="n">
         <v>0.9361702127659575</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>5.438470840454102</v>
+        <v>5.095624923706055</v>
       </c>
       <c r="G87" t="n">
         <v>0.9637537993920973</v>
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>5.644083023071289</v>
+        <v>5.402803421020508</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>5.839824676513672</v>
+        <v>5.567073822021484</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>6.150007247924805</v>
+        <v>6.026983261108398</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>6.253194808959961</v>
+        <v>6.087303161621094</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>6.284952163696289</v>
+        <v>6.113052368164062</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>5.352020263671875</v>
+        <v>5.196094512939453</v>
       </c>
       <c r="G93" t="n">
         <v>0.6981132075471698</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>5.422830581665039</v>
+        <v>5.19871711730957</v>
       </c>
       <c r="G94" t="n">
         <v>0.7584905660377358</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>5.706071853637695</v>
+        <v>5.209207534790039</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>5.985021591186523</v>
+        <v>5.565881729125977</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>6.275177001953125</v>
+        <v>5.668878555297852</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>6.406974792480469</v>
+        <v>5.993890762329102</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>6.439924240112305</v>
+        <v>6.075143814086914</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>1.552000001072884</v>
+        <v>1.56700000166893</v>
       </c>
       <c r="G100" t="n">
         <v>0.3454545454545455</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>1.55380000025034</v>
+        <v>1.573000004887581</v>
       </c>
       <c r="G101" t="n">
         <v>0.5933542319749217</v>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>1.58500000089407</v>
+        <v>1.593999996781349</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>1.601999998092651</v>
+        <v>1.598999999463558</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>1.631999999284744</v>
+        <v>1.620000001043081</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>1.729399999976158</v>
+        <v>1.686400001496076</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>1.754000000655651</v>
+        <v>1.753000002354383</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>1.581000000238419</v>
+        <v>1.585999999195337</v>
       </c>
       <c r="G107" t="n">
         <v>0.6842105263157895</v>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>1.589200000464916</v>
+        <v>1.58759999871254</v>
       </c>
       <c r="G108" t="n">
         <v>0.7431131019036954</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>1.622000001370907</v>
+        <v>1.593999996781349</v>
       </c>
       <c r="G109" t="n">
         <v>0.9787234042553191</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>1.626999996602535</v>
+        <v>1.600999999791384</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>1.630999997258186</v>
+        <v>1.629999995231628</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>1.643000003695488</v>
+        <v>1.633200001716614</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>1.646000005304813</v>
+        <v>1.63400000333786</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>1.675128936767578</v>
+        <v>1.650094985961914</v>
       </c>
       <c r="G114" t="n">
         <v>0.9361702127659575</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>1.675558090209961</v>
+        <v>1.650667190551758</v>
       </c>
       <c r="G115" t="n">
         <v>0.9562862669245649</v>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>1.677036285400391</v>
+        <v>1.659870147705078</v>
       </c>
       <c r="G116" t="n">
         <v>0.9814814814814815</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>1.70588493347168</v>
+        <v>1.678943634033203</v>
       </c>
       <c r="G117" t="n">
         <v>0.9841269841269841</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>1.732110977172852</v>
+        <v>1.703023910522461</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>1.882457733154297</v>
+        <v>1.721286773681641</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>1.928091049194336</v>
+        <v>1.726150512695312</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>1.684904098510742</v>
+        <v>1.654863357543945</v>
       </c>
       <c r="G121" t="n">
         <v>0.6851851851851852</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>1.686334609985352</v>
+        <v>1.655912399291992</v>
       </c>
       <c r="G122" t="n">
         <v>0.7431481481481482</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>1.692056655883789</v>
+        <v>1.66010856628418</v>
       </c>
       <c r="G123" t="n">
         <v>0.975</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>1.749992370605469</v>
+        <v>1.662254333496094</v>
       </c>
       <c r="G124" t="n">
         <v>0.9787234042553191</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>1.828193664550781</v>
+        <v>1.684904098510742</v>
       </c>
       <c r="G125" t="n">
         <v>0.98</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>1.848793029785156</v>
+        <v>1.715421676635742</v>
       </c>
       <c r="G126" t="n">
         <v>0.996</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>1.85394287109375</v>
+        <v>1.723051071166992</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>2.100944519042969</v>
+        <v>2.048015594482422</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>2.323532104492188</v>
+        <v>2.243566513061523</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>2.502918243408203</v>
+        <v>2.422094345092773</v>
       </c>
       <c r="G130" t="n">
         <v>0.04651162790697674</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>2.619028091430664</v>
+        <v>2.503871917724609</v>
       </c>
       <c r="G131" t="n">
         <v>0.4666666666666667</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>2.964019775390625</v>
+        <v>2.843141555786133</v>
       </c>
       <c r="G132" t="n">
         <v>0.9285714285714286</v>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>3.610658645629881</v>
+        <v>3.46236228942871</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>4.181861877441406</v>
+        <v>4.045009613037109</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>2.37584114074707</v>
+        <v>2.189159393310547</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>2.387046813964844</v>
+        <v>2.212953567504883</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -4005,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>2.431869506835938</v>
+        <v>2.308130264282227</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>2.488136291503906</v>
+        <v>2.439975738525391</v>
       </c>
       <c r="G138" t="n">
         <v>0.6481481481481481</v>
@@ -4055,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>2.727031707763672</v>
+        <v>2.59709358215332</v>
       </c>
       <c r="G139" t="n">
         <v>0.8536585365853658</v>
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>3.356456756591797</v>
+        <v>3.067445755004883</v>
       </c>
       <c r="G140" t="n">
         <v>0.9707317073170731</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>3.513813018798828</v>
+        <v>3.185033798217773</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>7.056951522827148</v>
+        <v>6.80088996887207</v>
       </c>
       <c r="G142" t="n">
         <v>0.9166666666666666</v>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>7.056951522827148</v>
+        <v>6.804037094116211</v>
       </c>
       <c r="G143" t="n">
         <v>0.9448484848484848</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>7.065773010253906</v>
+        <v>6.807088851928711</v>
       </c>
       <c r="G144" t="n">
         <v>0.9666666666666667</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>7.070064544677734</v>
+        <v>6.811141967773438</v>
       </c>
       <c r="G145" t="n">
         <v>0.9722222222222222</v>
@@ -4238,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>7.079839706420898</v>
+        <v>6.8206787109375</v>
       </c>
       <c r="G146" t="n">
         <v>0.9743589743589743</v>
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>7.602024078369141</v>
+        <v>6.827878952026367</v>
       </c>
       <c r="G147" t="n">
         <v>0.975609756097561</v>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>7.618904113769531</v>
+        <v>6.836891174316406</v>
       </c>
       <c r="G148" t="n">
         <v>0.975609756097561</v>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>7.061958312988281</v>
+        <v>6.799221038818359</v>
       </c>
       <c r="G149" t="n">
         <v>0.6727272727272727</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>7.065105438232422</v>
+        <v>6.799411773681641</v>
       </c>
       <c r="G150" t="n">
         <v>0.7321212121212122</v>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>7.077693939208984</v>
+        <v>6.800174713134766</v>
       </c>
       <c r="G151" t="n">
         <v>0.9696969696969697</v>
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>7.086753845214844</v>
+        <v>6.80994987487793</v>
       </c>
       <c r="G152" t="n">
         <v>0.9736842105263158</v>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>7.609844207763672</v>
+        <v>6.810903549194336</v>
       </c>
       <c r="G153" t="n">
         <v>0.975</v>
@@ -4442,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>7.624530792236328</v>
+        <v>6.814146041870117</v>
       </c>
       <c r="G154" t="n">
         <v>0.9768181818181818</v>
@@ -4467,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>7.628202438354492</v>
+        <v>6.814956665039062</v>
       </c>
       <c r="G155" t="n">
         <v>0.9772727272727273</v>
@@ -4500,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>2.201080322265625</v>
+        <v>2.143144607543945</v>
       </c>
       <c r="G156" t="n">
         <v>0.9285714285714286</v>
@@ -4525,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>2.218389511108398</v>
+        <v>2.158021926879883</v>
       </c>
       <c r="G157" t="n">
         <v>0.9537815126050421</v>
@@ -4550,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>2.305030822753906</v>
+        <v>2.249956130981445</v>
       </c>
       <c r="G158" t="n">
         <v>0.98</v>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>2.404212951660156</v>
+        <v>2.33912467956543</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>2.487897872924805</v>
+        <v>2.406120300292969</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>2.708578109741211</v>
+        <v>2.528142929077148</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>2.734899520874023</v>
+        <v>2.650022506713867</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -4679,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>2.330780029296875</v>
+        <v>2.216815948486328</v>
       </c>
       <c r="G163" t="n">
         <v>0.6896551724137931</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>2.358818054199219</v>
+        <v>2.228832244873047</v>
       </c>
       <c r="G164" t="n">
         <v>0.7464609800362977</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>2.470970153808594</v>
+        <v>2.276897430419922</v>
       </c>
       <c r="G165" t="n">
         <v>0.9736842105263158</v>
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>2.494096755981445</v>
+        <v>2.335071563720703</v>
       </c>
       <c r="G166" t="n">
         <v>0.9782608695652174</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>2.527952194213867</v>
+        <v>2.38800048828125</v>
       </c>
       <c r="G167" t="n">
         <v>0.9787234042553191</v>
@@ -4804,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>2.596807479858398</v>
+        <v>2.444839477539062</v>
       </c>
       <c r="G168" t="n">
         <v>0.979418150238819</v>
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>2.614021301269531</v>
+        <v>2.459049224853516</v>
       </c>
       <c r="G169" t="n">
         <v>0.9795918367346939</v>
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>1.238107681274414</v>
+        <v>1.193046569824219</v>
       </c>
       <c r="G170" t="n">
         <v>0.9361702127659575</v>
@@ -4887,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>1.243400573730469</v>
+        <v>1.19476318359375</v>
       </c>
       <c r="G171" t="n">
         <v>0.9639417693169092</v>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>1.265287399291992</v>
+        <v>1.220941543579102</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -4937,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>1.287221908569336</v>
+        <v>1.251935958862305</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>1.307010650634766</v>
+        <v>1.261711120605469</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>1.34739875793457</v>
+        <v>1.313209533691406</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>1.353979110717773</v>
+        <v>1.326799392700195</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>1.2359619140625</v>
+        <v>1.209020614624023</v>
       </c>
       <c r="G177" t="n">
         <v>0.6949152542372882</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>1.237201690673828</v>
+        <v>1.209783554077148</v>
       </c>
       <c r="G178" t="n">
         <v>0.7559322033898306</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>1.242160797119141</v>
+        <v>1.212835311889648</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>1.322031021118164</v>
+        <v>1.220703125</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>1.355886459350586</v>
+        <v>1.221895217895508</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>1.356840133666992</v>
+        <v>1.264619827270508</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>1.357078552246094</v>
+        <v>1.275300979614258</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>1.524000003933907</v>
+        <v>1.530000001192093</v>
       </c>
       <c r="G184" t="n">
         <v>0.9384615384615385</v>
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>1.540799999982119</v>
+        <v>1.532399997115135</v>
       </c>
       <c r="G185" t="n">
         <v>0.9658608058608058</v>
@@ -5274,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>1.651000000536442</v>
+        <v>1.602000012993813</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>1.708000004291534</v>
+        <v>1.641000002622604</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>1.764000006020069</v>
+        <v>1.719000000506639</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>1.794199999421835</v>
+        <v>1.73860000371933</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>1.795999996364117</v>
+        <v>1.753000006079674</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>1.616999998688698</v>
+        <v>1.586000001057982</v>
       </c>
       <c r="G191" t="n">
         <v>0.6909090909090909</v>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>1.618999999016523</v>
+        <v>1.589200000464916</v>
       </c>
       <c r="G192" t="n">
         <v>0.7527272727272727</v>
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>1.627000000327826</v>
+        <v>1.601999998092651</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>1.731000006198883</v>
+        <v>1.605999991297722</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -5503,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>1.831000000238419</v>
+        <v>1.660000000149012</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>1.853399999439716</v>
+        <v>1.777600003033876</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -5553,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>1.858999999240041</v>
+        <v>1.807000003755093</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>0.7269999980926514</v>
+        <v>0.7430000007152557</v>
       </c>
       <c r="G198" t="n">
         <v>0.9433962264150944</v>
@@ -5611,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>0.7317999988794327</v>
+        <v>0.7430000007152557</v>
       </c>
       <c r="G199" t="n">
         <v>0.9773584905660377</v>
@@ -5636,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.7419999986886978</v>
+        <v>0.746999999973923</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>0.7540000006556511</v>
+        <v>0.7649999987334013</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>0.7829999998211861</v>
+        <v>0.7740000002086163</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>0.8295999974012375</v>
+        <v>0.8138000003993511</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -5736,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.840999998152256</v>
+        <v>0.8509999997913837</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>0.7456000000238419</v>
+        <v>0.7415999978780746</v>
       </c>
       <c r="G206" t="n">
         <v>0.7584905660377358</v>
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>0.7719999998807907</v>
+        <v>0.7519999891519547</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>0.7800000011920929</v>
+        <v>0.7620000001043081</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.7900000009685755</v>
+        <v>0.778999999165535</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>0.7923999983817339</v>
+        <v>0.7870000034570694</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>0.7929999977350235</v>
+        <v>0.789000004529953</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>2.819061279296875</v>
+        <v>2.655982971191406</v>
       </c>
       <c r="G212" t="n">
         <v>0.9361702127659575</v>
@@ -5973,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="F213" t="n">
-        <v>2.822637557983398</v>
+        <v>2.660989761352539</v>
       </c>
       <c r="G213" t="n">
         <v>0.9639417693169092</v>
@@ -5998,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>2.828836441040039</v>
+        <v>2.666950225830078</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>2.838850021362305</v>
+        <v>2.67791748046875</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>2.852201461791992</v>
+        <v>2.686977386474609</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="F217" t="n">
-        <v>3.150272369384765</v>
+        <v>2.703475952148438</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="F218" t="n">
-        <v>3.270864486694336</v>
+        <v>2.721071243286133</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -6127,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>2.83503532409668</v>
+        <v>2.664089202880859</v>
       </c>
       <c r="G219" t="n">
         <v>0.6923076923076923</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>2.837848663330078</v>
+        <v>2.665472030639648</v>
       </c>
       <c r="G220" t="n">
         <v>0.7538461538461538</v>
@@ -6177,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>2.849102020263672</v>
+        <v>2.671003341674805</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>2.856969833374023</v>
+        <v>2.676963806152344</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>3.061056137084961</v>
+        <v>2.684831619262695</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>3.173017501831055</v>
+        <v>2.692079544067383</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>3.201007843017578</v>
+        <v>2.693891525268555</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="F226" t="n">
-        <v>8.315999999642372</v>
+        <v>8.65200001001358</v>
       </c>
       <c r="G226" t="n">
         <v>0.9423076923076923</v>
@@ -6335,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="F227" t="n">
-        <v>8.392199997603893</v>
+        <v>8.654399996995926</v>
       </c>
       <c r="G227" t="n">
         <v>0.9769230769230769</v>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="F228" t="n">
-        <v>8.604999996721745</v>
+        <v>8.717999994754791</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -6385,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="F229" t="n">
-        <v>8.864999998360872</v>
+        <v>9.075000001117587</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -6410,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="F230" t="n">
-        <v>9.318999998271465</v>
+        <v>9.345999999903142</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -6435,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="F231" t="n">
-        <v>10.99939999729395</v>
+        <v>10.59620000198483</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="F232" t="n">
-        <v>12.08599999547005</v>
+        <v>11.25500000268221</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -6489,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="F233" t="n">
-        <v>8.598999999463558</v>
+        <v>8.629000000655651</v>
       </c>
       <c r="G233" t="n">
         <v>0.6981132075471698</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>8.706000000238419</v>
+        <v>8.665000000596047</v>
       </c>
       <c r="G234" t="n">
         <v>0.7584905660377358</v>
@@ -6539,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>9.13400000333786</v>
+        <v>8.809000000357628</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>9.206000000238419</v>
+        <v>9.040000000968575</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="F237" t="n">
-        <v>9.391000002622604</v>
+        <v>9.276999995112419</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -6614,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>9.462999999523163</v>
+        <v>9.428199991583824</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -6639,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>9.480999998748302</v>
+        <v>9.465999990701675</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>64.55612182617188</v>
+        <v>63.06195259094238</v>
       </c>
       <c r="G240" t="n">
         <v>0.9555555555555556</v>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>64.59746360778809</v>
+        <v>63.07740211486816</v>
       </c>
       <c r="G241" t="n">
         <v>0.9822222222222222</v>
@@ -6722,7 +6722,7 @@
         <v>0</v>
       </c>
       <c r="F242" t="n">
-        <v>64.66388702392578</v>
+        <v>63.1108283996582</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -6747,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>64.68915939331055</v>
+        <v>63.13490867614746</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -6772,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>64.75400924682617</v>
+        <v>63.14897537231445</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>70.67389488220215</v>
+        <v>63.3080005645752</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>72.30997085571289</v>
+        <v>63.47894668579102</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -6851,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>64.6369457244873</v>
+        <v>63.06099891662598</v>
       </c>
       <c r="G247" t="n">
         <v>0.75</v>
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="F248" t="n">
-        <v>64.63775634765625</v>
+        <v>63.06414604187012</v>
       </c>
       <c r="G248" t="n">
         <v>0.8</v>
@@ -6901,7 +6901,7 @@
         <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>64.64099884033203</v>
+        <v>63.07673454284668</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -6926,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>64.79406356811523</v>
+        <v>63.15970420837402</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>69.98920440673828</v>
+        <v>63.1859302520752</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="F252" t="n">
-        <v>71.41551971435547</v>
+        <v>63.20099830627441</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>71.77209854125977</v>
+        <v>63.20476531982422</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
